--- a/도민참여_C15(소풍1회).xlsx
+++ b/도민참여_C15(소풍1회).xlsx
@@ -18434,10 +18434,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>공룔박물관</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>학교생활</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -18518,10 +18514,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>전세집</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>사교육없는 세상</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -18782,10 +18774,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>멋진개곡들</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>행복한 추억</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -18799,6 +18787,18 @@
   </si>
   <si>
     <t>전학오기전</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공룡박물관</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>전셋집</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>멋진계곡들</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -62849,8 +62849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -65251,10 +65251,10 @@
         <v>4010</v>
       </c>
       <c r="C32" s="50" t="s">
+        <v>4100</v>
+      </c>
+      <c r="D32" s="50" t="s">
         <v>4011</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>4012</v>
       </c>
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
@@ -65321,10 +65321,10 @@
         <v>395</v>
       </c>
       <c r="B33" s="50" t="s">
+        <v>4012</v>
+      </c>
+      <c r="C33" s="50" t="s">
         <v>4013</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>4014</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="50"/>
@@ -65392,13 +65392,13 @@
         <v>396</v>
       </c>
       <c r="B34" s="50" t="s">
+        <v>4014</v>
+      </c>
+      <c r="C34" s="50" t="s">
         <v>4015</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="D34" s="50" t="s">
         <v>4016</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>4017</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
@@ -65465,13 +65465,13 @@
         <v>397</v>
       </c>
       <c r="B35" s="50" t="s">
+        <v>4017</v>
+      </c>
+      <c r="C35" s="50" t="s">
         <v>4018</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="D35" s="50" t="s">
         <v>4019</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>4020</v>
       </c>
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
@@ -65538,7 +65538,7 @@
         <v>398</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="C36" s="50"/>
       <c r="D36" s="50"/>
@@ -65607,10 +65607,10 @@
         <v>399</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="50"/>
@@ -65678,13 +65678,13 @@
         <v>400</v>
       </c>
       <c r="B38" s="50" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C38" s="50" t="s">
         <v>4023</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="D38" s="50" t="s">
         <v>4024</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>4025</v>
       </c>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
@@ -65751,16 +65751,16 @@
         <v>401</v>
       </c>
       <c r="B39" s="50" t="s">
+        <v>4025</v>
+      </c>
+      <c r="C39" s="50" t="s">
         <v>4026</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="D39" s="50" t="s">
         <v>4027</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="E39" s="50" t="s">
         <v>4028</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>4029</v>
       </c>
       <c r="F39" s="50"/>
       <c r="G39" s="42" t="s">
@@ -65829,16 +65829,16 @@
         <v>3926</v>
       </c>
       <c r="C40" s="50" t="s">
+        <v>4029</v>
+      </c>
+      <c r="D40" s="50" t="s">
         <v>4030</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="E40" s="50" t="s">
+        <v>4101</v>
+      </c>
+      <c r="F40" s="50" t="s">
         <v>4031</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>4032</v>
-      </c>
-      <c r="F40" s="50" t="s">
-        <v>4033</v>
       </c>
       <c r="G40" s="42" t="s">
         <v>2027</v>
@@ -65903,16 +65903,16 @@
         <v>404</v>
       </c>
       <c r="B41" s="50" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D41" s="50" t="s">
         <v>4034</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="E41" s="50" t="s">
         <v>4035</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>4036</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>4037</v>
       </c>
       <c r="F41" s="50"/>
       <c r="G41" s="42" t="s">
@@ -65978,19 +65978,19 @@
         <v>405</v>
       </c>
       <c r="B42" s="50" t="s">
+        <v>4036</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>4037</v>
+      </c>
+      <c r="D42" s="50" t="s">
         <v>4038</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>4039</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>4040</v>
       </c>
       <c r="E42" s="50" t="s">
         <v>3906</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
       <c r="G42" s="42" t="s">
         <v>2027</v>
@@ -66055,19 +66055,19 @@
         <v>406</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="D43" s="50" t="s">
         <v>3897</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="G43" s="42" t="s">
         <v>2027</v>
@@ -66132,19 +66132,19 @@
         <v>409</v>
       </c>
       <c r="B44" s="50" t="s">
+        <v>4044</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>4045</v>
+      </c>
+      <c r="D44" s="50" t="s">
         <v>4046</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="E44" s="50" t="s">
         <v>4047</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="F44" s="50" t="s">
         <v>4048</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>4049</v>
-      </c>
-      <c r="F44" s="50" t="s">
-        <v>4050</v>
       </c>
       <c r="G44" s="42" t="s">
         <v>2027</v>
@@ -66209,19 +66209,19 @@
         <v>411</v>
       </c>
       <c r="B45" s="50" t="s">
+        <v>4049</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>4050</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>4020</v>
+      </c>
+      <c r="E45" s="50" t="s">
         <v>4051</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="F45" s="50" t="s">
         <v>4052</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>4021</v>
-      </c>
-      <c r="E45" s="50" t="s">
-        <v>4053</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>4054</v>
       </c>
       <c r="G45" s="42" t="s">
         <v>2027</v>
@@ -66286,19 +66286,19 @@
         <v>414</v>
       </c>
       <c r="B46" s="50" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>4054</v>
+      </c>
+      <c r="D46" s="50" t="s">
         <v>4055</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="E46" s="50" t="s">
         <v>4056</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="F46" s="50" t="s">
         <v>4057</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>4058</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>4059</v>
       </c>
       <c r="G46" s="42" t="s">
         <v>2027</v>
@@ -66366,7 +66366,7 @@
         <v>3925</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>4060</v>
+        <v>4058</v>
       </c>
       <c r="D47" s="50" t="s">
         <v>3950</v>
@@ -66375,7 +66375,7 @@
         <v>3897</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>4061</v>
+        <v>4059</v>
       </c>
       <c r="G47" s="42" t="s">
         <v>2027</v>
@@ -66440,19 +66440,19 @@
         <v>498</v>
       </c>
       <c r="B48" s="50" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>4061</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E48" s="50" t="s">
         <v>4062</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="F48" s="50" t="s">
         <v>4063</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>4051</v>
-      </c>
-      <c r="E48" s="50" t="s">
-        <v>4064</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>4065</v>
       </c>
       <c r="G48" s="42" t="s">
         <v>2027</v>
@@ -66517,16 +66517,16 @@
         <v>499</v>
       </c>
       <c r="B49" s="50" t="s">
+        <v>4064</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>4065</v>
+      </c>
+      <c r="D49" s="50" t="s">
         <v>4066</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="E49" s="50" t="s">
         <v>4067</v>
-      </c>
-      <c r="D49" s="50" t="s">
-        <v>4068</v>
-      </c>
-      <c r="E49" s="50" t="s">
-        <v>4069</v>
       </c>
       <c r="F49" s="50"/>
       <c r="G49" s="42" t="s">
@@ -66595,16 +66595,16 @@
         <v>3894</v>
       </c>
       <c r="C50" s="50" t="s">
+        <v>4068</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E50" s="50" t="s">
         <v>4070</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="F50" s="50" t="s">
         <v>4071</v>
-      </c>
-      <c r="E50" s="50" t="s">
-        <v>4072</v>
-      </c>
-      <c r="F50" s="50" t="s">
-        <v>4073</v>
       </c>
       <c r="G50" s="42" t="s">
         <v>2027</v>
@@ -66669,19 +66669,19 @@
         <v>585</v>
       </c>
       <c r="B51" s="50" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>4073</v>
+      </c>
+      <c r="D51" s="50" t="s">
         <v>4074</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="E51" s="50" t="s">
         <v>4075</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="F51" s="50" t="s">
         <v>4076</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>4077</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>4078</v>
       </c>
       <c r="G51" s="42" t="s">
         <v>2027</v>
@@ -66746,19 +66746,19 @@
         <v>586</v>
       </c>
       <c r="B52" s="50" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>4078</v>
+      </c>
+      <c r="D52" s="50" t="s">
         <v>4079</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="E52" s="50" t="s">
         <v>4080</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="F52" s="50" t="s">
         <v>4081</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>4082</v>
-      </c>
-      <c r="F52" s="50" t="s">
-        <v>4083</v>
       </c>
       <c r="G52" s="42" t="s">
         <v>2027</v>
@@ -66823,19 +66823,19 @@
         <v>590</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="D53" s="50" t="s">
         <v>3988</v>
       </c>
       <c r="E53" s="50" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="F53" s="50" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="G53" s="42" t="s">
         <v>2027</v>
@@ -66900,16 +66900,16 @@
         <v>594</v>
       </c>
       <c r="B54" s="50" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>4087</v>
+      </c>
+      <c r="D54" s="50" t="s">
         <v>4088</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="E54" s="50" t="s">
         <v>4089</v>
-      </c>
-      <c r="D54" s="50" t="s">
-        <v>4090</v>
-      </c>
-      <c r="E54" s="50" t="s">
-        <v>4091</v>
       </c>
       <c r="F54" s="50"/>
       <c r="G54" s="42" t="s">
@@ -66975,13 +66975,13 @@
         <v>606</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
       <c r="D55" s="50" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
       <c r="E55" s="50"/>
       <c r="F55" s="50"/>
@@ -67048,16 +67048,16 @@
         <v>616</v>
       </c>
       <c r="B56" s="50" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>4094</v>
+      </c>
+      <c r="D56" s="50" t="s">
         <v>4095</v>
       </c>
-      <c r="C56" s="50" t="s">
-        <v>4096</v>
-      </c>
-      <c r="D56" s="50" t="s">
-        <v>4097</v>
-      </c>
       <c r="E56" s="50" t="s">
-        <v>4098</v>
+        <v>4102</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="42" t="s">
@@ -67123,10 +67123,10 @@
         <v>617</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>4099</v>
+        <v>4096</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>4100</v>
+        <v>4097</v>
       </c>
       <c r="D57" s="50"/>
       <c r="E57" s="50"/>
@@ -67194,13 +67194,13 @@
         <v>618</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>4101</v>
+        <v>4098</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>4102</v>
+        <v>4099</v>
       </c>
       <c r="D58" s="50" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="E58" s="50"/>
       <c r="F58" s="50"/>

--- a/도민참여_C15(소풍1회).xlsx
+++ b/도민참여_C15(소풍1회).xlsx
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'수집기록물 목록'!$A$1:$X$953</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$AR$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$AS$58</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14156" uniqueCount="4036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14214" uniqueCount="4040">
   <si>
     <t>Name</t>
   </si>
@@ -18579,6 +18579,22 @@
   </si>
   <si>
     <t>멋진계곡들</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>omeka 제목</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인생낙서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>도전!도의원 현장기록사진</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>추억의방</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -62615,10 +62631,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -62627,19 +62643,20 @@
     <col min="2" max="6" width="20.5703125" style="45" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" style="25" customWidth="1"/>
     <col min="8" max="8" width="29.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="25" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="25" customWidth="1"/>
-    <col min="14" max="15" width="19.5703125" style="25" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" style="33" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" style="25" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" style="25" customWidth="1"/>
-    <col min="19" max="21" width="21.42578125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="42.42578125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="25" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="25" customWidth="1"/>
+    <col min="15" max="16" width="19.5703125" style="25" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="33" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" style="25" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="25" customWidth="1"/>
+    <col min="20" max="22" width="21.42578125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="14" customFormat="1">
+    <row r="1" spans="1:22" s="14" customFormat="1">
       <c r="A1" s="38" t="s">
         <v>1952</v>
       </c>
@@ -62664,47 +62681,50 @@
       <c r="H1" s="37" t="s">
         <v>3803</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="37" t="s">
+        <v>4036</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>998</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>1954</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>1955</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>1956</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>1957</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>1958</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>1959</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>1960</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>1961</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>1962</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>1963</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>1964</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>1965</v>
       </c>
     </row>
-    <row r="2" spans="1:21" collapsed="1">
+    <row r="2" spans="1:22" collapsed="1">
       <c r="A2" s="39" t="s">
         <v>203</v>
       </c>
@@ -62729,44 +62749,47 @@
       <c r="H2" s="26" t="s">
         <v>3064</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>1081</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>1199</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="O2" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P2" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="S2" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="T2" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="U2" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="V2" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="3" spans="1:21" collapsed="1">
+    <row r="3" spans="1:22" collapsed="1">
       <c r="A3" s="39" t="s">
         <v>204</v>
       </c>
@@ -62791,44 +62814,47 @@
       <c r="H3" s="26" t="s">
         <v>3065</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>1082</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="M3" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="N3" s="25" t="s">
         <v>1200</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="O3" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P3" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R3" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="S3" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="T3" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="U3" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="V3" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="4" spans="1:21" collapsed="1">
+    <row r="4" spans="1:22" collapsed="1">
       <c r="A4" s="39" t="s">
         <v>206</v>
       </c>
@@ -62853,44 +62879,47 @@
       <c r="H4" s="26" t="s">
         <v>3067</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J4" s="25" t="s">
         <v>1084</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="K4" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="L4" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="M4" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="N4" s="25" t="s">
         <v>1202</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="O4" s="25" t="s">
         <v>1201</v>
       </c>
-      <c r="P4" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R4" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="S4" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="T4" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="U4" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="V4" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="5" spans="1:21" collapsed="1">
+    <row r="5" spans="1:22" collapsed="1">
       <c r="A5" s="39" t="s">
         <v>207</v>
       </c>
@@ -62915,44 +62944,47 @@
       <c r="H5" s="26" t="s">
         <v>3068</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>1085</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="M5" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="25" t="s">
         <v>1203</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="25" t="s">
         <v>1201</v>
       </c>
-      <c r="P5" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="S5" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="U5" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="V5" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="6" spans="1:21" collapsed="1">
+    <row r="6" spans="1:22" collapsed="1">
       <c r="A6" s="39" t="s">
         <v>208</v>
       </c>
@@ -62977,44 +63009,47 @@
       <c r="H6" s="26" t="s">
         <v>3069</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J6" s="25" t="s">
         <v>1086</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="L6" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="M6" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="N6" s="25" t="s">
         <v>1204</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="O6" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P6" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R6" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="S6" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="T6" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T6" s="25" t="s">
+      <c r="U6" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U6" s="25" t="s">
+      <c r="V6" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="7" spans="1:21" collapsed="1">
+    <row r="7" spans="1:22" collapsed="1">
       <c r="A7" s="39" t="s">
         <v>209</v>
       </c>
@@ -63039,44 +63074,47 @@
       <c r="H7" s="26" t="s">
         <v>3070</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>1087</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="K7" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="L7" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="M7" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="N7" s="25" t="s">
         <v>1197</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="O7" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P7" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q7" s="25" t="s">
+      <c r="Q7" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R7" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="S7" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="T7" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T7" s="25" t="s">
+      <c r="U7" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U7" s="25" t="s">
+      <c r="V7" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="8" spans="1:21" collapsed="1">
+    <row r="8" spans="1:22" collapsed="1">
       <c r="A8" s="39" t="s">
         <v>211</v>
       </c>
@@ -63101,44 +63139,47 @@
       <c r="H8" s="26" t="s">
         <v>3072</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J8" s="25" t="s">
         <v>1089</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="K8" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="L8" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="M8" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="N8" s="25" t="s">
         <v>1205</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="O8" s="25" t="s">
         <v>1201</v>
       </c>
-      <c r="P8" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R8" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="S8" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="T8" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T8" s="25" t="s">
+      <c r="U8" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U8" s="25" t="s">
+      <c r="V8" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="9" spans="1:21" collapsed="1">
+    <row r="9" spans="1:22" collapsed="1">
       <c r="A9" s="39" t="s">
         <v>212</v>
       </c>
@@ -63163,44 +63204,47 @@
       <c r="H9" s="26" t="s">
         <v>3073</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>1090</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="K9" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="L9" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="M9" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="N9" s="25" t="s">
         <v>1206</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="O9" s="25" t="s">
         <v>1201</v>
       </c>
-      <c r="P9" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R9" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="S9" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="T9" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="U9" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U9" s="25" t="s">
+      <c r="V9" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="10" spans="1:21" collapsed="1">
+    <row r="10" spans="1:22" collapsed="1">
       <c r="A10" s="39" t="s">
         <v>213</v>
       </c>
@@ -63225,44 +63269,47 @@
       <c r="H10" s="26" t="s">
         <v>3074</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>1091</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="K10" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="L10" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="M10" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="N10" s="25" t="s">
         <v>1195</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="O10" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P10" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R10" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="S10" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="T10" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T10" s="25" t="s">
+      <c r="U10" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U10" s="25" t="s">
+      <c r="V10" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="11" spans="1:21" collapsed="1">
+    <row r="11" spans="1:22" collapsed="1">
       <c r="A11" s="39" t="s">
         <v>216</v>
       </c>
@@ -63287,44 +63334,47 @@
       <c r="H11" s="26" t="s">
         <v>3077</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>1094</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="K11" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="L11" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="M11" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="N11" s="25" t="s">
         <v>1195</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="O11" s="25" t="s">
         <v>1201</v>
       </c>
-      <c r="P11" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R11" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="S11" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="T11" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T11" s="25" t="s">
+      <c r="U11" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U11" s="25" t="s">
+      <c r="V11" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="12" spans="1:21" collapsed="1">
+    <row r="12" spans="1:22" collapsed="1">
       <c r="A12" s="39" t="s">
         <v>217</v>
       </c>
@@ -63349,44 +63399,47 @@
       <c r="H12" s="26" t="s">
         <v>3078</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J12" s="25" t="s">
         <v>1095</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="K12" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="L12" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="M12" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="N12" s="25" t="s">
         <v>1203</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="O12" s="25" t="s">
         <v>1201</v>
       </c>
-      <c r="P12" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R12" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="S12" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="T12" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="U12" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U12" s="25" t="s">
+      <c r="V12" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="13" spans="1:21" collapsed="1">
+    <row r="13" spans="1:22" collapsed="1">
       <c r="A13" s="39" t="s">
         <v>218</v>
       </c>
@@ -63411,44 +63464,47 @@
       <c r="H13" s="26" t="s">
         <v>3079</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>1096</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="K13" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="L13" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="M13" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="N13" s="25" t="s">
         <v>1207</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="O13" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P13" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R13" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="S13" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="T13" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="U13" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U13" s="25" t="s">
+      <c r="V13" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="14" spans="1:21" collapsed="1">
+    <row r="14" spans="1:22" collapsed="1">
       <c r="A14" s="39" t="s">
         <v>219</v>
       </c>
@@ -63473,44 +63529,47 @@
       <c r="H14" s="26" t="s">
         <v>3080</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>1097</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="K14" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="L14" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="M14" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="N14" s="25" t="s">
         <v>1200</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="O14" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P14" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q14" s="25" t="s">
+      <c r="Q14" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R14" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="S14" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="T14" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T14" s="25" t="s">
+      <c r="U14" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U14" s="25" t="s">
+      <c r="V14" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="15" spans="1:21" collapsed="1">
+    <row r="15" spans="1:22" collapsed="1">
       <c r="A15" s="39" t="s">
         <v>221</v>
       </c>
@@ -63535,44 +63594,47 @@
       <c r="H15" s="26" t="s">
         <v>3082</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J15" s="25" t="s">
         <v>1099</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="K15" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="L15" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="M15" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="N15" s="25" t="s">
         <v>1208</v>
       </c>
-      <c r="N15" s="25" t="s">
+      <c r="O15" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P15" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R15" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="S15" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="T15" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T15" s="25" t="s">
+      <c r="U15" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U15" s="25" t="s">
+      <c r="V15" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="16" spans="1:21" collapsed="1">
+    <row r="16" spans="1:22" collapsed="1">
       <c r="A16" s="39" t="s">
         <v>222</v>
       </c>
@@ -63597,44 +63659,47 @@
       <c r="H16" s="26" t="s">
         <v>3083</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J16" s="25" t="s">
         <v>1100</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="K16" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="L16" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="M16" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="N16" s="25" t="s">
         <v>1205</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="O16" s="25" t="s">
         <v>1201</v>
       </c>
-      <c r="P16" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R16" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="S16" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="T16" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T16" s="25" t="s">
+      <c r="U16" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U16" s="25" t="s">
+      <c r="V16" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="17" spans="1:21" collapsed="1">
+    <row r="17" spans="1:22" collapsed="1">
       <c r="A17" s="39" t="s">
         <v>224</v>
       </c>
@@ -63659,44 +63724,47 @@
       <c r="H17" s="26" t="s">
         <v>3085</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>1972</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="K17" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="L17" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="M17" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="N17" s="25" t="s">
         <v>1209</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="O17" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P17" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R17" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="S17" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S17" s="25" t="s">
+      <c r="T17" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T17" s="25" t="s">
+      <c r="U17" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U17" s="25" t="s">
+      <c r="V17" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="18" spans="1:21" collapsed="1">
+    <row r="18" spans="1:22" collapsed="1">
       <c r="A18" s="39" t="s">
         <v>225</v>
       </c>
@@ -63717,44 +63785,47 @@
       <c r="H18" s="26" t="s">
         <v>3086</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>1389</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="K18" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="L18" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="M18" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="N18" s="25" t="s">
         <v>1210</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="O18" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P18" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q18" s="25" t="s">
+      <c r="Q18" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R18" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="S18" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S18" s="25" t="s">
+      <c r="T18" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T18" s="25" t="s">
+      <c r="U18" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U18" s="25" t="s">
+      <c r="V18" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="19" spans="1:21" collapsed="1">
+    <row r="19" spans="1:22" collapsed="1">
       <c r="A19" s="39" t="s">
         <v>227</v>
       </c>
@@ -63779,44 +63850,47 @@
       <c r="H19" s="26" t="s">
         <v>3088</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J19" s="25" t="s">
         <v>1103</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="K19" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="L19" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="M19" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M19" s="25" t="s">
+      <c r="N19" s="25" t="s">
         <v>1204</v>
       </c>
-      <c r="N19" s="25" t="s">
+      <c r="O19" s="25" t="s">
         <v>1201</v>
       </c>
-      <c r="P19" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q19" s="25" t="s">
+      <c r="Q19" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R19" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="S19" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S19" s="25" t="s">
+      <c r="T19" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T19" s="25" t="s">
+      <c r="U19" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U19" s="25" t="s">
+      <c r="V19" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="20" spans="1:21" collapsed="1">
+    <row r="20" spans="1:22" collapsed="1">
       <c r="A20" s="39" t="s">
         <v>229</v>
       </c>
@@ -63841,44 +63915,47 @@
       <c r="H20" s="26" t="s">
         <v>3090</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J20" s="25" t="s">
         <v>1105</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="K20" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="L20" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="M20" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="N20" s="25" t="s">
         <v>1211</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="O20" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P20" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q20" s="25" t="s">
+      <c r="Q20" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R20" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="S20" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S20" s="25" t="s">
+      <c r="T20" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T20" s="25" t="s">
+      <c r="U20" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U20" s="25" t="s">
+      <c r="V20" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="21" spans="1:21" collapsed="1">
+    <row r="21" spans="1:22" collapsed="1">
       <c r="A21" s="39" t="s">
         <v>230</v>
       </c>
@@ -63903,44 +63980,47 @@
       <c r="H21" s="26" t="s">
         <v>3091</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J21" s="25" t="s">
         <v>1106</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="K21" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="L21" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="M21" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="N21" s="25" t="s">
         <v>1212</v>
       </c>
-      <c r="N21" s="25" t="s">
+      <c r="O21" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P21" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R21" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="S21" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S21" s="25" t="s">
+      <c r="T21" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T21" s="25" t="s">
+      <c r="U21" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U21" s="25" t="s">
+      <c r="V21" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="22" spans="1:21" collapsed="1">
+    <row r="22" spans="1:22" collapsed="1">
       <c r="A22" s="39" t="s">
         <v>232</v>
       </c>
@@ -63961,44 +64041,47 @@
       <c r="H22" s="26" t="s">
         <v>3093</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>1108</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="K22" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="L22" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="M22" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="N22" s="25" t="s">
         <v>1211</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="O22" s="25" t="s">
         <v>1201</v>
       </c>
-      <c r="P22" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R22" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="S22" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S22" s="25" t="s">
+      <c r="T22" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T22" s="25" t="s">
+      <c r="U22" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U22" s="25" t="s">
+      <c r="V22" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="23" spans="1:21" collapsed="1">
+    <row r="23" spans="1:22" collapsed="1">
       <c r="A23" s="39" t="s">
         <v>236</v>
       </c>
@@ -64021,44 +64104,47 @@
       <c r="H23" s="26" t="s">
         <v>3097</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J23" s="25" t="s">
         <v>1112</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="K23" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="L23" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="M23" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="N23" s="25" t="s">
         <v>1214</v>
       </c>
-      <c r="N23" s="25" t="s">
+      <c r="O23" s="25" t="s">
         <v>1201</v>
       </c>
-      <c r="P23" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R23" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="S23" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S23" s="25" t="s">
+      <c r="T23" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T23" s="25" t="s">
+      <c r="U23" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U23" s="25" t="s">
+      <c r="V23" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="24" spans="1:21" collapsed="1">
+    <row r="24" spans="1:22" collapsed="1">
       <c r="A24" s="39" t="s">
         <v>238</v>
       </c>
@@ -64079,44 +64165,47 @@
       <c r="H24" s="26" t="s">
         <v>3099</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J24" s="25" t="s">
         <v>1114</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="K24" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="L24" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="M24" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M24" s="25" t="s">
+      <c r="N24" s="25" t="s">
         <v>1215</v>
       </c>
-      <c r="N24" s="25" t="s">
+      <c r="O24" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P24" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q24" s="25" t="s">
+      <c r="Q24" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R24" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R24" s="25" t="s">
+      <c r="S24" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S24" s="25" t="s">
+      <c r="T24" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T24" s="25" t="s">
+      <c r="U24" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U24" s="25" t="s">
+      <c r="V24" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="25" spans="1:21" collapsed="1">
+    <row r="25" spans="1:22" collapsed="1">
       <c r="A25" s="39" t="s">
         <v>241</v>
       </c>
@@ -64139,44 +64228,47 @@
       <c r="H25" s="26" t="s">
         <v>3102</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J25" s="25" t="s">
         <v>1117</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="K25" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="L25" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="M25" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="N25" s="25" t="s">
         <v>1216</v>
       </c>
-      <c r="N25" s="25" t="s">
+      <c r="O25" s="25" t="s">
         <v>1201</v>
       </c>
-      <c r="P25" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q25" s="25" t="s">
+      <c r="Q25" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R25" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R25" s="25" t="s">
+      <c r="S25" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S25" s="25" t="s">
+      <c r="T25" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T25" s="25" t="s">
+      <c r="U25" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U25" s="25" t="s">
+      <c r="V25" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="26" spans="1:21" collapsed="1">
+    <row r="26" spans="1:22" collapsed="1">
       <c r="A26" s="39" t="s">
         <v>242</v>
       </c>
@@ -64195,44 +64287,47 @@
       <c r="H26" s="26" t="s">
         <v>3103</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J26" s="25" t="s">
         <v>1118</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="K26" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="L26" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L26" s="25" t="s">
+      <c r="M26" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="N26" s="25" t="s">
         <v>1217</v>
       </c>
-      <c r="N26" s="25" t="s">
+      <c r="O26" s="25" t="s">
         <v>1196</v>
       </c>
-      <c r="P26" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q26" s="25" t="s">
+      <c r="Q26" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R26" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="S26" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S26" s="25" t="s">
+      <c r="T26" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T26" s="25" t="s">
+      <c r="U26" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U26" s="25" t="s">
+      <c r="V26" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="27" spans="1:21" collapsed="1">
+    <row r="27" spans="1:22" collapsed="1">
       <c r="A27" s="39" t="s">
         <v>244</v>
       </c>
@@ -64251,44 +64346,47 @@
       <c r="H27" s="26" t="s">
         <v>3105</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J27" s="25" t="s">
         <v>1120</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="K27" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="L27" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="M27" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="N27" s="25" t="s">
         <v>1218</v>
       </c>
-      <c r="N27" s="25" t="s">
+      <c r="O27" s="25" t="s">
         <v>1201</v>
       </c>
-      <c r="P27" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q27" s="25" t="s">
+      <c r="Q27" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R27" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R27" s="25" t="s">
+      <c r="S27" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S27" s="25" t="s">
+      <c r="T27" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T27" s="25" t="s">
+      <c r="U27" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U27" s="25" t="s">
+      <c r="V27" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="28" spans="1:21" collapsed="1">
+    <row r="28" spans="1:22" collapsed="1">
       <c r="A28" s="39" t="s">
         <v>246</v>
       </c>
@@ -64311,44 +64409,47 @@
       <c r="H28" s="26" t="s">
         <v>3107</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J28" s="25" t="s">
         <v>1122</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="K28" s="25" t="s">
         <v>1945</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="L28" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="M28" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="N28" s="25" t="s">
         <v>1213</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="O28" s="25" t="s">
         <v>1201</v>
       </c>
-      <c r="P28" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q28" s="25" t="s">
+      <c r="Q28" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R28" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="R28" s="25" t="s">
+      <c r="S28" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S28" s="25" t="s">
+      <c r="T28" s="25" t="s">
         <v>1970</v>
       </c>
-      <c r="T28" s="25" t="s">
+      <c r="U28" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U28" s="25" t="s">
+      <c r="V28" s="25" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="29" spans="1:21" collapsed="1">
+    <row r="29" spans="1:22" collapsed="1">
       <c r="A29" s="39" t="s">
         <v>346</v>
       </c>
@@ -64373,44 +64474,47 @@
       <c r="H29" s="26" t="s">
         <v>3207</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J29" s="25" t="s">
         <v>1467</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="K29" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="L29" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="M29" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="N29" s="25" t="s">
         <v>1226</v>
       </c>
-      <c r="N29" s="25" t="s">
+      <c r="O29" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="P29" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q29" s="25" t="s">
+      <c r="Q29" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R29" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R29" s="25" t="s">
+      <c r="S29" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S29" s="25" t="s">
+      <c r="T29" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T29" s="25" t="s">
+      <c r="U29" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U29" s="25" t="s">
+      <c r="V29" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="30" spans="1:21" collapsed="1">
+    <row r="30" spans="1:22" collapsed="1">
       <c r="A30" s="39" t="s">
         <v>363</v>
       </c>
@@ -64429,44 +64533,47 @@
       <c r="H30" s="26" t="s">
         <v>3224</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J30" s="25" t="s">
         <v>1484</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="K30" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="L30" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L30" s="25" t="s">
+      <c r="M30" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="N30" s="25" t="s">
         <v>1225</v>
       </c>
-      <c r="N30" s="25" t="s">
+      <c r="O30" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P30" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q30" s="25" t="s">
+      <c r="Q30" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R30" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R30" s="25" t="s">
+      <c r="S30" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S30" s="25" t="s">
+      <c r="T30" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T30" s="25" t="s">
+      <c r="U30" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U30" s="25" t="s">
+      <c r="V30" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="31" spans="1:21" collapsed="1">
+    <row r="31" spans="1:22" collapsed="1">
       <c r="A31" s="39" t="s">
         <v>364</v>
       </c>
@@ -64485,44 +64592,47 @@
       <c r="H31" s="26" t="s">
         <v>3225</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J31" s="25" t="s">
         <v>1485</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="K31" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="L31" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="M31" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="N31" s="25" t="s">
         <v>1230</v>
       </c>
-      <c r="N31" s="25" t="s">
+      <c r="O31" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P31" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q31" s="25" t="s">
+      <c r="Q31" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R31" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R31" s="25" t="s">
+      <c r="S31" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S31" s="25" t="s">
+      <c r="T31" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T31" s="25" t="s">
+      <c r="U31" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U31" s="25" t="s">
+      <c r="V31" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="32" spans="1:21" collapsed="1">
+    <row r="32" spans="1:22" collapsed="1">
       <c r="A32" s="39" t="s">
         <v>365</v>
       </c>
@@ -64543,44 +64653,47 @@
       <c r="H32" s="26" t="s">
         <v>3226</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J32" s="25" t="s">
         <v>1486</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="K32" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="L32" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L32" s="25" t="s">
+      <c r="M32" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M32" s="25" t="s">
+      <c r="N32" s="25" t="s">
         <v>1231</v>
       </c>
-      <c r="N32" s="25" t="s">
+      <c r="O32" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P32" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q32" s="25" t="s">
+      <c r="Q32" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R32" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R32" s="25" t="s">
+      <c r="S32" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S32" s="25" t="s">
+      <c r="T32" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T32" s="25" t="s">
+      <c r="U32" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U32" s="25" t="s">
+      <c r="V32" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="33" spans="1:21" collapsed="1">
+    <row r="33" spans="1:22" collapsed="1">
       <c r="A33" s="39" t="s">
         <v>366</v>
       </c>
@@ -64599,44 +64712,47 @@
       <c r="H33" s="26" t="s">
         <v>3227</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="I33" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J33" s="25" t="s">
         <v>1487</v>
       </c>
-      <c r="J33" s="25" t="s">
+      <c r="K33" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="L33" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L33" s="25" t="s">
+      <c r="M33" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M33" s="25" t="s">
+      <c r="N33" s="25" t="s">
         <v>1229</v>
       </c>
-      <c r="N33" s="25" t="s">
+      <c r="O33" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P33" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q33" s="25" t="s">
+      <c r="Q33" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R33" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R33" s="25" t="s">
+      <c r="S33" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S33" s="25" t="s">
+      <c r="T33" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T33" s="25" t="s">
+      <c r="U33" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U33" s="25" t="s">
+      <c r="V33" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="34" spans="1:21" collapsed="1">
+    <row r="34" spans="1:22" collapsed="1">
       <c r="A34" s="39" t="s">
         <v>367</v>
       </c>
@@ -64657,44 +64773,47 @@
       <c r="H34" s="26" t="s">
         <v>3228</v>
       </c>
-      <c r="I34" s="25" t="s">
+      <c r="I34" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J34" s="25" t="s">
         <v>1488</v>
       </c>
-      <c r="J34" s="25" t="s">
+      <c r="K34" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K34" s="25" t="s">
+      <c r="L34" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L34" s="25" t="s">
+      <c r="M34" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M34" s="25" t="s">
+      <c r="N34" s="25" t="s">
         <v>1232</v>
       </c>
-      <c r="N34" s="25" t="s">
+      <c r="O34" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P34" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q34" s="25" t="s">
+      <c r="Q34" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R34" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R34" s="25" t="s">
+      <c r="S34" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S34" s="25" t="s">
+      <c r="T34" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T34" s="25" t="s">
+      <c r="U34" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U34" s="25" t="s">
+      <c r="V34" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="35" spans="1:21" collapsed="1">
+    <row r="35" spans="1:22" collapsed="1">
       <c r="A35" s="39" t="s">
         <v>368</v>
       </c>
@@ -64715,44 +64834,47 @@
       <c r="H35" s="26" t="s">
         <v>3229</v>
       </c>
-      <c r="I35" s="25" t="s">
+      <c r="I35" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J35" s="25" t="s">
         <v>1489</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="K35" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K35" s="25" t="s">
+      <c r="L35" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L35" s="25" t="s">
+      <c r="M35" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M35" s="25" t="s">
+      <c r="N35" s="25" t="s">
         <v>1229</v>
       </c>
-      <c r="N35" s="25" t="s">
+      <c r="O35" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P35" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q35" s="25" t="s">
+      <c r="Q35" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R35" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="S35" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S35" s="25" t="s">
+      <c r="T35" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T35" s="25" t="s">
+      <c r="U35" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U35" s="25" t="s">
+      <c r="V35" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="36" spans="1:21" collapsed="1">
+    <row r="36" spans="1:22" collapsed="1">
       <c r="A36" s="39" t="s">
         <v>369</v>
       </c>
@@ -64769,44 +64891,47 @@
       <c r="H36" s="26" t="s">
         <v>3230</v>
       </c>
-      <c r="I36" s="25" t="s">
+      <c r="I36" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J36" s="25" t="s">
         <v>1490</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="K36" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="L36" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L36" s="25" t="s">
+      <c r="M36" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M36" s="25" t="s">
+      <c r="N36" s="25" t="s">
         <v>1222</v>
       </c>
-      <c r="N36" s="25" t="s">
+      <c r="O36" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P36" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q36" s="25" t="s">
+      <c r="Q36" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R36" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R36" s="25" t="s">
+      <c r="S36" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S36" s="25" t="s">
+      <c r="T36" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T36" s="25" t="s">
+      <c r="U36" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U36" s="25" t="s">
+      <c r="V36" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="37" spans="1:21" collapsed="1">
+    <row r="37" spans="1:22" collapsed="1">
       <c r="A37" s="39" t="s">
         <v>370</v>
       </c>
@@ -64825,44 +64950,47 @@
       <c r="H37" s="26" t="s">
         <v>3231</v>
       </c>
-      <c r="I37" s="25" t="s">
+      <c r="I37" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J37" s="25" t="s">
         <v>1491</v>
       </c>
-      <c r="J37" s="25" t="s">
+      <c r="K37" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K37" s="25" t="s">
+      <c r="L37" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="M37" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M37" s="25" t="s">
+      <c r="N37" s="25" t="s">
         <v>1220</v>
       </c>
-      <c r="N37" s="25" t="s">
+      <c r="O37" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P37" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q37" s="25" t="s">
+      <c r="Q37" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R37" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R37" s="25" t="s">
+      <c r="S37" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S37" s="25" t="s">
+      <c r="T37" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T37" s="25" t="s">
+      <c r="U37" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U37" s="25" t="s">
+      <c r="V37" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="38" spans="1:21" collapsed="1">
+    <row r="38" spans="1:22" collapsed="1">
       <c r="A38" s="39" t="s">
         <v>371</v>
       </c>
@@ -64883,44 +65011,47 @@
       <c r="H38" s="26" t="s">
         <v>3232</v>
       </c>
-      <c r="I38" s="25" t="s">
+      <c r="I38" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J38" s="25" t="s">
         <v>1492</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="K38" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="L38" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="M38" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M38" s="25" t="s">
+      <c r="N38" s="25" t="s">
         <v>1233</v>
       </c>
-      <c r="N38" s="25" t="s">
+      <c r="O38" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P38" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q38" s="25" t="s">
+      <c r="Q38" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R38" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R38" s="25" t="s">
+      <c r="S38" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S38" s="25" t="s">
+      <c r="T38" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T38" s="25" t="s">
+      <c r="U38" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U38" s="25" t="s">
+      <c r="V38" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="39" spans="1:21" collapsed="1">
+    <row r="39" spans="1:22" collapsed="1">
       <c r="A39" s="39" t="s">
         <v>372</v>
       </c>
@@ -64943,44 +65074,47 @@
       <c r="H39" s="26" t="s">
         <v>3233</v>
       </c>
-      <c r="I39" s="25" t="s">
+      <c r="I39" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J39" s="25" t="s">
         <v>1493</v>
       </c>
-      <c r="J39" s="25" t="s">
+      <c r="K39" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K39" s="25" t="s">
+      <c r="L39" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="M39" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M39" s="25" t="s">
+      <c r="N39" s="25" t="s">
         <v>1234</v>
       </c>
-      <c r="N39" s="25" t="s">
+      <c r="O39" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P39" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q39" s="25" t="s">
+      <c r="Q39" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R39" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R39" s="25" t="s">
+      <c r="S39" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S39" s="25" t="s">
+      <c r="T39" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T39" s="25" t="s">
+      <c r="U39" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U39" s="25" t="s">
+      <c r="V39" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="40" spans="1:21" collapsed="1">
+    <row r="40" spans="1:22" collapsed="1">
       <c r="A40" s="39" t="s">
         <v>374</v>
       </c>
@@ -65005,44 +65139,47 @@
       <c r="H40" s="26" t="s">
         <v>3235</v>
       </c>
-      <c r="I40" s="25" t="s">
+      <c r="I40" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J40" s="25" t="s">
         <v>1495</v>
       </c>
-      <c r="J40" s="25" t="s">
+      <c r="K40" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="L40" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L40" s="25" t="s">
+      <c r="M40" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M40" s="25" t="s">
+      <c r="N40" s="25" t="s">
         <v>1234</v>
       </c>
-      <c r="N40" s="25" t="s">
+      <c r="O40" s="25" t="s">
         <v>1228</v>
       </c>
-      <c r="P40" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q40" s="25" t="s">
+      <c r="Q40" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R40" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R40" s="25" t="s">
+      <c r="S40" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S40" s="25" t="s">
+      <c r="T40" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T40" s="25" t="s">
+      <c r="U40" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U40" s="25" t="s">
+      <c r="V40" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="41" spans="1:21" collapsed="1">
+    <row r="41" spans="1:22" collapsed="1">
       <c r="A41" s="39" t="s">
         <v>375</v>
       </c>
@@ -65065,44 +65202,47 @@
       <c r="H41" s="26" t="s">
         <v>3236</v>
       </c>
-      <c r="I41" s="25" t="s">
+      <c r="I41" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J41" s="25" t="s">
         <v>1496</v>
       </c>
-      <c r="J41" s="25" t="s">
+      <c r="K41" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K41" s="25" t="s">
+      <c r="L41" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L41" s="25" t="s">
+      <c r="M41" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M41" s="25" t="s">
+      <c r="N41" s="25" t="s">
         <v>1235</v>
       </c>
-      <c r="N41" s="25" t="s">
+      <c r="O41" s="25" t="s">
         <v>1228</v>
       </c>
-      <c r="P41" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q41" s="25" t="s">
+      <c r="Q41" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R41" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R41" s="25" t="s">
+      <c r="S41" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S41" s="25" t="s">
+      <c r="T41" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T41" s="25" t="s">
+      <c r="U41" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U41" s="25" t="s">
+      <c r="V41" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="42" spans="1:21" collapsed="1">
+    <row r="42" spans="1:22" collapsed="1">
       <c r="A42" s="39" t="s">
         <v>376</v>
       </c>
@@ -65127,44 +65267,47 @@
       <c r="H42" s="26" t="s">
         <v>3237</v>
       </c>
-      <c r="I42" s="25" t="s">
+      <c r="I42" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J42" s="25" t="s">
         <v>1497</v>
       </c>
-      <c r="J42" s="25" t="s">
+      <c r="K42" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K42" s="25" t="s">
+      <c r="L42" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L42" s="25" t="s">
+      <c r="M42" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M42" s="25" t="s">
+      <c r="N42" s="25" t="s">
         <v>1236</v>
       </c>
-      <c r="N42" s="25" t="s">
+      <c r="O42" s="25" t="s">
         <v>1228</v>
       </c>
-      <c r="P42" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q42" s="25" t="s">
+      <c r="Q42" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R42" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R42" s="25" t="s">
+      <c r="S42" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S42" s="25" t="s">
+      <c r="T42" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T42" s="25" t="s">
+      <c r="U42" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U42" s="25" t="s">
+      <c r="V42" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="43" spans="1:21" collapsed="1">
+    <row r="43" spans="1:22" collapsed="1">
       <c r="A43" s="39" t="s">
         <v>377</v>
       </c>
@@ -65189,44 +65332,47 @@
       <c r="H43" s="26" t="s">
         <v>3238</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="I43" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J43" s="25" t="s">
         <v>1498</v>
       </c>
-      <c r="J43" s="25" t="s">
+      <c r="K43" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K43" s="25" t="s">
+      <c r="L43" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L43" s="25" t="s">
+      <c r="M43" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M43" s="25" t="s">
+      <c r="N43" s="25" t="s">
         <v>1219</v>
       </c>
-      <c r="N43" s="25" t="s">
+      <c r="O43" s="25" t="s">
         <v>1228</v>
       </c>
-      <c r="P43" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q43" s="25" t="s">
+      <c r="Q43" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R43" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R43" s="25" t="s">
+      <c r="S43" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S43" s="25" t="s">
+      <c r="T43" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T43" s="25" t="s">
+      <c r="U43" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U43" s="25" t="s">
+      <c r="V43" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="44" spans="1:21" collapsed="1">
+    <row r="44" spans="1:22" collapsed="1">
       <c r="A44" s="39" t="s">
         <v>380</v>
       </c>
@@ -65251,44 +65397,47 @@
       <c r="H44" s="26" t="s">
         <v>3241</v>
       </c>
-      <c r="I44" s="25" t="s">
+      <c r="I44" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J44" s="25" t="s">
         <v>1501</v>
       </c>
-      <c r="J44" s="25" t="s">
+      <c r="K44" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K44" s="25" t="s">
+      <c r="L44" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L44" s="25" t="s">
+      <c r="M44" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M44" s="25" t="s">
+      <c r="N44" s="25" t="s">
         <v>1238</v>
       </c>
-      <c r="N44" s="25" t="s">
+      <c r="O44" s="25" t="s">
         <v>1228</v>
       </c>
-      <c r="P44" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q44" s="25" t="s">
+      <c r="Q44" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R44" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R44" s="25" t="s">
+      <c r="S44" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S44" s="25" t="s">
+      <c r="T44" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T44" s="25" t="s">
+      <c r="U44" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U44" s="25" t="s">
+      <c r="V44" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="45" spans="1:21" collapsed="1">
+    <row r="45" spans="1:22" collapsed="1">
       <c r="A45" s="39" t="s">
         <v>382</v>
       </c>
@@ -65313,44 +65462,47 @@
       <c r="H45" s="26" t="s">
         <v>3243</v>
       </c>
-      <c r="I45" s="25" t="s">
+      <c r="I45" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J45" s="25" t="s">
         <v>1503</v>
       </c>
-      <c r="J45" s="25" t="s">
+      <c r="K45" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K45" s="25" t="s">
+      <c r="L45" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L45" s="25" t="s">
+      <c r="M45" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M45" s="25" t="s">
+      <c r="N45" s="25" t="s">
         <v>1239</v>
       </c>
-      <c r="N45" s="25" t="s">
+      <c r="O45" s="25" t="s">
         <v>1228</v>
       </c>
-      <c r="P45" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q45" s="25" t="s">
+      <c r="Q45" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R45" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R45" s="25" t="s">
+      <c r="S45" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S45" s="25" t="s">
+      <c r="T45" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T45" s="25" t="s">
+      <c r="U45" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U45" s="25" t="s">
+      <c r="V45" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="46" spans="1:21" collapsed="1">
+    <row r="46" spans="1:22" collapsed="1">
       <c r="A46" s="39" t="s">
         <v>384</v>
       </c>
@@ -65375,44 +65527,47 @@
       <c r="H46" s="26" t="s">
         <v>3245</v>
       </c>
-      <c r="I46" s="25" t="s">
+      <c r="I46" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J46" s="25" t="s">
         <v>1505</v>
       </c>
-      <c r="J46" s="25" t="s">
+      <c r="K46" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K46" s="25" t="s">
+      <c r="L46" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L46" s="25" t="s">
+      <c r="M46" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M46" s="25" t="s">
+      <c r="N46" s="25" t="s">
         <v>1237</v>
       </c>
-      <c r="N46" s="25" t="s">
+      <c r="O46" s="25" t="s">
         <v>1228</v>
       </c>
-      <c r="P46" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q46" s="25" t="s">
+      <c r="Q46" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R46" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R46" s="25" t="s">
+      <c r="S46" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S46" s="25" t="s">
+      <c r="T46" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T46" s="25" t="s">
+      <c r="U46" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U46" s="25" t="s">
+      <c r="V46" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="47" spans="1:21" collapsed="1">
+    <row r="47" spans="1:22" collapsed="1">
       <c r="A47" s="39" t="s">
         <v>408</v>
       </c>
@@ -65437,44 +65592,47 @@
       <c r="H47" s="26" t="s">
         <v>3269</v>
       </c>
-      <c r="I47" s="25" t="s">
+      <c r="I47" s="26" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J47" s="25" t="s">
         <v>1529</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="K47" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K47" s="25" t="s">
+      <c r="L47" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L47" s="25" t="s">
+      <c r="M47" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M47" s="25" t="s">
+      <c r="N47" s="25" t="s">
         <v>1230</v>
       </c>
-      <c r="N47" s="25" t="s">
+      <c r="O47" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P47" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q47" s="25" t="s">
+      <c r="Q47" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R47" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R47" s="25" t="s">
+      <c r="S47" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S47" s="25" t="s">
+      <c r="T47" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T47" s="25" t="s">
+      <c r="U47" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U47" s="25" t="s">
+      <c r="V47" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="48" spans="1:21" collapsed="1">
+    <row r="48" spans="1:22" collapsed="1">
       <c r="A48" s="39" t="s">
         <v>451</v>
       </c>
@@ -65499,44 +65657,47 @@
       <c r="H48" s="26" t="s">
         <v>3312</v>
       </c>
-      <c r="I48" s="25" t="s">
+      <c r="I48" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J48" s="25" t="s">
         <v>1568</v>
       </c>
-      <c r="J48" s="25" t="s">
+      <c r="K48" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K48" s="25" t="s">
+      <c r="L48" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L48" s="25" t="s">
+      <c r="M48" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M48" s="25" t="s">
+      <c r="N48" s="25" t="s">
         <v>1223</v>
       </c>
-      <c r="N48" s="25" t="s">
+      <c r="O48" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P48" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q48" s="25" t="s">
+      <c r="Q48" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R48" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R48" s="25" t="s">
+      <c r="S48" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S48" s="25" t="s">
+      <c r="T48" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T48" s="25" t="s">
+      <c r="U48" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U48" s="25" t="s">
+      <c r="V48" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="49" spans="1:21" collapsed="1">
+    <row r="49" spans="1:22" collapsed="1">
       <c r="A49" s="39" t="s">
         <v>452</v>
       </c>
@@ -65559,44 +65720,47 @@
       <c r="H49" s="26" t="s">
         <v>3313</v>
       </c>
-      <c r="I49" s="25" t="s">
+      <c r="I49" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J49" s="25" t="s">
         <v>1569</v>
       </c>
-      <c r="J49" s="25" t="s">
+      <c r="K49" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K49" s="25" t="s">
+      <c r="L49" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L49" s="25" t="s">
+      <c r="M49" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M49" s="25" t="s">
+      <c r="N49" s="25" t="s">
         <v>1231</v>
       </c>
-      <c r="N49" s="25" t="s">
+      <c r="O49" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P49" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q49" s="25" t="s">
+      <c r="Q49" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R49" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R49" s="25" t="s">
+      <c r="S49" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S49" s="25" t="s">
+      <c r="T49" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T49" s="25" t="s">
+      <c r="U49" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U49" s="25" t="s">
+      <c r="V49" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="50" spans="1:21" collapsed="1">
+    <row r="50" spans="1:22" collapsed="1">
       <c r="A50" s="39" t="s">
         <v>453</v>
       </c>
@@ -65621,44 +65785,47 @@
       <c r="H50" s="26" t="s">
         <v>3314</v>
       </c>
-      <c r="I50" s="25" t="s">
+      <c r="I50" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J50" s="25" t="s">
         <v>1570</v>
       </c>
-      <c r="J50" s="25" t="s">
+      <c r="K50" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K50" s="25" t="s">
+      <c r="L50" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L50" s="25" t="s">
+      <c r="M50" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M50" s="25" t="s">
+      <c r="N50" s="25" t="s">
         <v>1243</v>
       </c>
-      <c r="N50" s="25" t="s">
+      <c r="O50" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P50" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q50" s="25" t="s">
+      <c r="Q50" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R50" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R50" s="25" t="s">
+      <c r="S50" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S50" s="25" t="s">
+      <c r="T50" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T50" s="25" t="s">
+      <c r="U50" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U50" s="25" t="s">
+      <c r="V50" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="51" spans="1:21" collapsed="1">
+    <row r="51" spans="1:22" collapsed="1">
       <c r="A51" s="39" t="s">
         <v>535</v>
       </c>
@@ -65683,44 +65850,47 @@
       <c r="H51" s="26" t="s">
         <v>3357</v>
       </c>
-      <c r="I51" s="25" t="s">
+      <c r="I51" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J51" s="25" t="s">
         <v>1600</v>
       </c>
-      <c r="J51" s="25" t="s">
+      <c r="K51" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K51" s="25" t="s">
+      <c r="L51" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L51" s="25" t="s">
+      <c r="M51" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M51" s="25" t="s">
+      <c r="N51" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="N51" s="25" t="s">
+      <c r="O51" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P51" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q51" s="25" t="s">
+      <c r="Q51" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R51" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R51" s="25" t="s">
+      <c r="S51" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S51" s="25" t="s">
+      <c r="T51" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T51" s="25" t="s">
+      <c r="U51" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U51" s="25" t="s">
+      <c r="V51" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="52" spans="1:21" collapsed="1">
+    <row r="52" spans="1:22" collapsed="1">
       <c r="A52" s="39" t="s">
         <v>536</v>
       </c>
@@ -65745,44 +65915,47 @@
       <c r="H52" s="26" t="s">
         <v>3358</v>
       </c>
-      <c r="I52" s="25" t="s">
+      <c r="I52" s="26" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J52" s="25" t="s">
         <v>1601</v>
       </c>
-      <c r="J52" s="25" t="s">
+      <c r="K52" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K52" s="25" t="s">
+      <c r="L52" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L52" s="25" t="s">
+      <c r="M52" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M52" s="25" t="s">
+      <c r="N52" s="25" t="s">
         <v>1242</v>
       </c>
-      <c r="N52" s="25" t="s">
+      <c r="O52" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P52" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q52" s="25" t="s">
+      <c r="Q52" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R52" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R52" s="25" t="s">
+      <c r="S52" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S52" s="25" t="s">
+      <c r="T52" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T52" s="25" t="s">
+      <c r="U52" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U52" s="25" t="s">
+      <c r="V52" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="53" spans="1:21" collapsed="1">
+    <row r="53" spans="1:22" collapsed="1">
       <c r="A53" s="39" t="s">
         <v>540</v>
       </c>
@@ -65807,44 +65980,47 @@
       <c r="H53" s="26" t="s">
         <v>3361</v>
       </c>
-      <c r="I53" s="25" t="s">
+      <c r="I53" s="26" t="s">
+        <v>4039</v>
+      </c>
+      <c r="J53" s="25" t="s">
         <v>1604</v>
       </c>
-      <c r="J53" s="25" t="s">
+      <c r="K53" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K53" s="25" t="s">
+      <c r="L53" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L53" s="25" t="s">
+      <c r="M53" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M53" s="25" t="s">
+      <c r="N53" s="25" t="s">
         <v>1244</v>
       </c>
-      <c r="N53" s="25" t="s">
+      <c r="O53" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P53" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q53" s="25" t="s">
+      <c r="Q53" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R53" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R53" s="25" t="s">
+      <c r="S53" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S53" s="25" t="s">
+      <c r="T53" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T53" s="25" t="s">
+      <c r="U53" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U53" s="25" t="s">
+      <c r="V53" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="54" spans="1:21" collapsed="1">
+    <row r="54" spans="1:22" collapsed="1">
       <c r="A54" s="39" t="s">
         <v>544</v>
       </c>
@@ -65867,44 +66043,47 @@
       <c r="H54" s="26" t="s">
         <v>3365</v>
       </c>
-      <c r="I54" s="25" t="s">
+      <c r="I54" s="26" t="s">
+        <v>4039</v>
+      </c>
+      <c r="J54" s="25" t="s">
         <v>1608</v>
       </c>
-      <c r="J54" s="25" t="s">
+      <c r="K54" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K54" s="25" t="s">
+      <c r="L54" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L54" s="25" t="s">
+      <c r="M54" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M54" s="25" t="s">
+      <c r="N54" s="25" t="s">
         <v>1243</v>
       </c>
-      <c r="N54" s="25" t="s">
+      <c r="O54" s="25" t="s">
         <v>1245</v>
       </c>
-      <c r="P54" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q54" s="25" t="s">
+      <c r="Q54" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R54" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R54" s="25" t="s">
+      <c r="S54" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S54" s="25" t="s">
+      <c r="T54" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T54" s="25" t="s">
+      <c r="U54" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U54" s="25" t="s">
+      <c r="V54" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="55" spans="1:21" collapsed="1">
+    <row r="55" spans="1:22" collapsed="1">
       <c r="A55" s="39" t="s">
         <v>556</v>
       </c>
@@ -65925,44 +66104,47 @@
       <c r="H55" s="26" t="s">
         <v>3376</v>
       </c>
-      <c r="I55" s="25" t="s">
+      <c r="I55" s="26" t="s">
+        <v>4039</v>
+      </c>
+      <c r="J55" s="25" t="s">
         <v>1619</v>
       </c>
-      <c r="J55" s="25" t="s">
+      <c r="K55" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K55" s="25" t="s">
+      <c r="L55" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L55" s="25" t="s">
+      <c r="M55" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M55" s="25" t="s">
+      <c r="N55" s="25" t="s">
         <v>1198</v>
       </c>
-      <c r="N55" s="25" t="s">
+      <c r="O55" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P55" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q55" s="25" t="s">
+      <c r="Q55" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R55" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R55" s="25" t="s">
+      <c r="S55" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S55" s="25" t="s">
+      <c r="T55" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T55" s="25" t="s">
+      <c r="U55" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U55" s="25" t="s">
+      <c r="V55" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="56" spans="1:21" collapsed="1">
+    <row r="56" spans="1:22" collapsed="1">
       <c r="A56" s="39" t="s">
         <v>566</v>
       </c>
@@ -65985,44 +66167,47 @@
       <c r="H56" s="26" t="s">
         <v>3385</v>
       </c>
-      <c r="I56" s="25" t="s">
+      <c r="I56" s="26" t="s">
+        <v>4039</v>
+      </c>
+      <c r="J56" s="25" t="s">
         <v>1628</v>
       </c>
-      <c r="J56" s="25" t="s">
+      <c r="K56" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K56" s="25" t="s">
+      <c r="L56" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L56" s="25" t="s">
+      <c r="M56" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M56" s="25" t="s">
+      <c r="N56" s="25" t="s">
         <v>1223</v>
       </c>
-      <c r="N56" s="25" t="s">
+      <c r="O56" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P56" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q56" s="25" t="s">
+      <c r="Q56" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R56" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R56" s="25" t="s">
+      <c r="S56" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S56" s="25" t="s">
+      <c r="T56" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T56" s="25" t="s">
+      <c r="U56" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U56" s="25" t="s">
+      <c r="V56" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="57" spans="1:21" collapsed="1">
+    <row r="57" spans="1:22" collapsed="1">
       <c r="A57" s="39" t="s">
         <v>567</v>
       </c>
@@ -66041,44 +66226,47 @@
       <c r="H57" s="26" t="s">
         <v>3386</v>
       </c>
-      <c r="I57" s="25" t="s">
+      <c r="I57" s="26" t="s">
+        <v>4039</v>
+      </c>
+      <c r="J57" s="25" t="s">
         <v>1629</v>
       </c>
-      <c r="J57" s="25" t="s">
+      <c r="K57" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K57" s="25" t="s">
+      <c r="L57" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L57" s="25" t="s">
+      <c r="M57" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M57" s="25" t="s">
+      <c r="N57" s="25" t="s">
         <v>1241</v>
       </c>
-      <c r="N57" s="25" t="s">
+      <c r="O57" s="25" t="s">
         <v>1224</v>
       </c>
-      <c r="P57" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q57" s="25" t="s">
+      <c r="Q57" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R57" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R57" s="25" t="s">
+      <c r="S57" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S57" s="25" t="s">
+      <c r="T57" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T57" s="25" t="s">
+      <c r="U57" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U57" s="25" t="s">
+      <c r="V57" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="58" spans="1:21" collapsed="1">
+    <row r="58" spans="1:22" collapsed="1">
       <c r="A58" s="39" t="s">
         <v>568</v>
       </c>
@@ -66099,117 +66287,121 @@
       <c r="H58" s="26" t="s">
         <v>3387</v>
       </c>
-      <c r="I58" s="25" t="s">
+      <c r="I58" s="26" t="s">
+        <v>4039</v>
+      </c>
+      <c r="J58" s="25" t="s">
         <v>1630</v>
       </c>
-      <c r="J58" s="25" t="s">
+      <c r="K58" s="25" t="s">
         <v>1968</v>
       </c>
-      <c r="K58" s="25" t="s">
+      <c r="L58" s="25" t="s">
         <v>1194</v>
       </c>
-      <c r="L58" s="25" t="s">
+      <c r="M58" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="M58" s="25" t="s">
+      <c r="N58" s="25" t="s">
         <v>1221</v>
       </c>
-      <c r="N58" s="25" t="s">
+      <c r="O58" s="25" t="s">
         <v>1246</v>
       </c>
-      <c r="P58" s="26" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q58" s="25" t="s">
+      <c r="Q58" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R58" s="25" t="s">
         <v>1969</v>
       </c>
-      <c r="R58" s="25" t="s">
+      <c r="S58" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="S58" s="25" t="s">
+      <c r="T58" s="25" t="s">
         <v>1966</v>
       </c>
-      <c r="T58" s="25" t="s">
+      <c r="U58" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="U58" s="25" t="s">
+      <c r="V58" s="25" t="s">
         <v>1967</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR58">
+  <autoFilter ref="A1:AS58">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
+    <filterColumn colId="8"/>
     <sortState ref="A2:AU593">
       <sortCondition ref="A1:A593"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2:P1048576">
       <formula1>"사진류, 그림류, 영상류, 음성류"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="170527_소풍_경기천년소풍(1회) 인생낙서 00-상-전_고아라.jpg"/>
-    <hyperlink ref="P4" r:id="rId2" display="170527_소풍_경기천년소풍(1회) 인생낙서 00-하-전중_고아라.jpg"/>
-    <hyperlink ref="P5" r:id="rId3" display="170527_소풍_경기천년소풍(1회) 인생낙서 00-하-중_고아라.jpg"/>
-    <hyperlink ref="P6" r:id="rId4" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-상-전_고아라.jpg"/>
-    <hyperlink ref="P7" r:id="rId5" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-상-중후_고아라.jpg"/>
-    <hyperlink ref="P8" r:id="rId6" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-하-전_고아라.jpg"/>
-    <hyperlink ref="P9" r:id="rId7" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-하-중후_고아라.jpg"/>
-    <hyperlink ref="P10" r:id="rId8" display="170527_소풍_경기천년소풍(1회) 인생낙서 20-상-전중_고아라.jpg"/>
-    <hyperlink ref="P11" r:id="rId9" display="170527_소풍_경기천년소풍(1회) 인생낙서 20-하-전중_고아라.jpg"/>
-    <hyperlink ref="P12" r:id="rId10" display="170527_소풍_경기천년소풍(1회) 인생낙서 20-하-후_고아라.jpg"/>
-    <hyperlink ref="P13" r:id="rId11" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-상-전_고아라.jpg"/>
-    <hyperlink ref="P14" r:id="rId12" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-상-중후)_고아라.jpg"/>
-    <hyperlink ref="P15" r:id="rId13" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-전-중후_고아라.jpg"/>
-    <hyperlink ref="P16" r:id="rId14" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-하-중후_고아라.jpg"/>
-    <hyperlink ref="P17" r:id="rId15" display="170527_소풍_경기천년소풍(1회) 인생낙서 40-상-전중_고아라 (1).jpg"/>
-    <hyperlink ref="P18" r:id="rId16" display="170527_소풍_경기천년소풍(1회) 인생낙서 40-상-전중_고아라 (2).jpg"/>
-    <hyperlink ref="P19" r:id="rId17" display="170527_소풍_경기천년소풍(1회) 인생낙서 40-하-전_고아라.jpg"/>
-    <hyperlink ref="P20" r:id="rId18" display="170527_소풍_경기천년소풍(1회) 인생낙서 50-상-전_고아라.jpg"/>
-    <hyperlink ref="P21" r:id="rId19" display="170527_소풍_경기천년소풍(1회) 인생낙서 50-상-중후_고아라.jpg"/>
-    <hyperlink ref="P22" r:id="rId20" display="170527_소풍_경기천년소풍(1회) 인생낙서 50-하-중후_고아라.jpg"/>
-    <hyperlink ref="P23" r:id="rId21" display="170527_소풍_경기천년소풍(1회) 인생낙서 60-하-전_고아라.jpg"/>
-    <hyperlink ref="P24" r:id="rId22" display="170527_소풍_경기천년소풍(1회) 인생낙서 70-상-전_고아라 (2).jpg"/>
-    <hyperlink ref="P25" r:id="rId23" display="170527_소풍_경기천년소풍(1회) 인생낙서 70-하-중_고아라.jpg"/>
-    <hyperlink ref="P26" r:id="rId24" display="170527_소풍_경기천년소풍(1회) 인생낙서 80-상-후_고아라.jpg"/>
-    <hyperlink ref="P27" r:id="rId25" display="170527_소풍_경기천년소풍(1회) 인생낙서 80-하-전_고아라.jpg"/>
-    <hyperlink ref="P28" r:id="rId26" display="170527_소풍_경기천년소풍(1회) 인생낙서 90-하-후_고아라.jpg"/>
-    <hyperlink ref="P29" r:id="rId27" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (14).jpg"/>
-    <hyperlink ref="P30" r:id="rId28" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (31).jpg"/>
-    <hyperlink ref="P31" r:id="rId29" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (32).jpg"/>
-    <hyperlink ref="P32" r:id="rId30" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (33).jpg"/>
-    <hyperlink ref="P33" r:id="rId31" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (34).jpg"/>
-    <hyperlink ref="P34" r:id="rId32" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (35).jpg"/>
-    <hyperlink ref="P35" r:id="rId33" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (36).jpg"/>
-    <hyperlink ref="P36" r:id="rId34" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (37).jpg"/>
-    <hyperlink ref="P37" r:id="rId35" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (38).jpg"/>
-    <hyperlink ref="P38" r:id="rId36" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (39).jpg"/>
-    <hyperlink ref="P39" r:id="rId37" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (40).jpg"/>
-    <hyperlink ref="P40" r:id="rId38" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (42).jpg"/>
-    <hyperlink ref="P41" r:id="rId39" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (43).jpg"/>
-    <hyperlink ref="P42" r:id="rId40" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (44).jpg"/>
-    <hyperlink ref="P43" r:id="rId41" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (45).jpg"/>
-    <hyperlink ref="P44" r:id="rId42" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (48).jpg"/>
-    <hyperlink ref="P45" r:id="rId43" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (50).jpg"/>
-    <hyperlink ref="P46" r:id="rId44" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (52).jpg"/>
-    <hyperlink ref="P47" r:id="rId45" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (76).jpg"/>
-    <hyperlink ref="P48" r:id="rId46" display="170527_소풍_경기천년소풍(1회)_인생낙서 현장기록사진_문화용역주성진 (15).jpg"/>
-    <hyperlink ref="P49" r:id="rId47" display="170527_소풍_경기천년소풍(1회)_인생낙서 현장기록사진_문화용역주성진 (16).jpg"/>
-    <hyperlink ref="P50" r:id="rId48" display="170527_소풍_경기천년소풍(1회)_인생낙서 현장기록사진_문화용역주성진 (17).jpg"/>
-    <hyperlink ref="P51" r:id="rId49" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (27).jpg"/>
-    <hyperlink ref="P52" r:id="rId50" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (28).jpg"/>
-    <hyperlink ref="P53" r:id="rId51" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (31).jpg"/>
-    <hyperlink ref="P54" r:id="rId52" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (35).jpg"/>
-    <hyperlink ref="P55" r:id="rId53" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (46).jpg"/>
-    <hyperlink ref="P56" r:id="rId54" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (55).jpg"/>
-    <hyperlink ref="P57" r:id="rId55" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (56).jpg"/>
-    <hyperlink ref="P58" r:id="rId56" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (57).jpg"/>
+    <hyperlink ref="Q2" r:id="rId1" display="170527_소풍_경기천년소풍(1회) 인생낙서 00-상-전_고아라.jpg"/>
+    <hyperlink ref="Q4" r:id="rId2" display="170527_소풍_경기천년소풍(1회) 인생낙서 00-하-전중_고아라.jpg"/>
+    <hyperlink ref="Q5" r:id="rId3" display="170527_소풍_경기천년소풍(1회) 인생낙서 00-하-중_고아라.jpg"/>
+    <hyperlink ref="Q6" r:id="rId4" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-상-전_고아라.jpg"/>
+    <hyperlink ref="Q7" r:id="rId5" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-상-중후_고아라.jpg"/>
+    <hyperlink ref="Q8" r:id="rId6" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-하-전_고아라.jpg"/>
+    <hyperlink ref="Q9" r:id="rId7" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-하-중후_고아라.jpg"/>
+    <hyperlink ref="Q10" r:id="rId8" display="170527_소풍_경기천년소풍(1회) 인생낙서 20-상-전중_고아라.jpg"/>
+    <hyperlink ref="Q11" r:id="rId9" display="170527_소풍_경기천년소풍(1회) 인생낙서 20-하-전중_고아라.jpg"/>
+    <hyperlink ref="Q12" r:id="rId10" display="170527_소풍_경기천년소풍(1회) 인생낙서 20-하-후_고아라.jpg"/>
+    <hyperlink ref="Q13" r:id="rId11" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-상-전_고아라.jpg"/>
+    <hyperlink ref="Q14" r:id="rId12" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-상-중후)_고아라.jpg"/>
+    <hyperlink ref="Q15" r:id="rId13" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-전-중후_고아라.jpg"/>
+    <hyperlink ref="Q16" r:id="rId14" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-하-중후_고아라.jpg"/>
+    <hyperlink ref="Q17" r:id="rId15" display="170527_소풍_경기천년소풍(1회) 인생낙서 40-상-전중_고아라 (1).jpg"/>
+    <hyperlink ref="Q18" r:id="rId16" display="170527_소풍_경기천년소풍(1회) 인생낙서 40-상-전중_고아라 (2).jpg"/>
+    <hyperlink ref="Q19" r:id="rId17" display="170527_소풍_경기천년소풍(1회) 인생낙서 40-하-전_고아라.jpg"/>
+    <hyperlink ref="Q20" r:id="rId18" display="170527_소풍_경기천년소풍(1회) 인생낙서 50-상-전_고아라.jpg"/>
+    <hyperlink ref="Q21" r:id="rId19" display="170527_소풍_경기천년소풍(1회) 인생낙서 50-상-중후_고아라.jpg"/>
+    <hyperlink ref="Q22" r:id="rId20" display="170527_소풍_경기천년소풍(1회) 인생낙서 50-하-중후_고아라.jpg"/>
+    <hyperlink ref="Q23" r:id="rId21" display="170527_소풍_경기천년소풍(1회) 인생낙서 60-하-전_고아라.jpg"/>
+    <hyperlink ref="Q24" r:id="rId22" display="170527_소풍_경기천년소풍(1회) 인생낙서 70-상-전_고아라 (2).jpg"/>
+    <hyperlink ref="Q25" r:id="rId23" display="170527_소풍_경기천년소풍(1회) 인생낙서 70-하-중_고아라.jpg"/>
+    <hyperlink ref="Q26" r:id="rId24" display="170527_소풍_경기천년소풍(1회) 인생낙서 80-상-후_고아라.jpg"/>
+    <hyperlink ref="Q27" r:id="rId25" display="170527_소풍_경기천년소풍(1회) 인생낙서 80-하-전_고아라.jpg"/>
+    <hyperlink ref="Q28" r:id="rId26" display="170527_소풍_경기천년소풍(1회) 인생낙서 90-하-후_고아라.jpg"/>
+    <hyperlink ref="Q29" r:id="rId27" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (14).jpg"/>
+    <hyperlink ref="Q30" r:id="rId28" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (31).jpg"/>
+    <hyperlink ref="Q31" r:id="rId29" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (32).jpg"/>
+    <hyperlink ref="Q32" r:id="rId30" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (33).jpg"/>
+    <hyperlink ref="Q33" r:id="rId31" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (34).jpg"/>
+    <hyperlink ref="Q34" r:id="rId32" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (35).jpg"/>
+    <hyperlink ref="Q35" r:id="rId33" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (36).jpg"/>
+    <hyperlink ref="Q36" r:id="rId34" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (37).jpg"/>
+    <hyperlink ref="Q37" r:id="rId35" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (38).jpg"/>
+    <hyperlink ref="Q38" r:id="rId36" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (39).jpg"/>
+    <hyperlink ref="Q39" r:id="rId37" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (40).jpg"/>
+    <hyperlink ref="Q40" r:id="rId38" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (42).jpg"/>
+    <hyperlink ref="Q41" r:id="rId39" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (43).jpg"/>
+    <hyperlink ref="Q42" r:id="rId40" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (44).jpg"/>
+    <hyperlink ref="Q43" r:id="rId41" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (45).jpg"/>
+    <hyperlink ref="Q44" r:id="rId42" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (48).jpg"/>
+    <hyperlink ref="Q45" r:id="rId43" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (50).jpg"/>
+    <hyperlink ref="Q46" r:id="rId44" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (52).jpg"/>
+    <hyperlink ref="Q47" r:id="rId45" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (76).jpg"/>
+    <hyperlink ref="Q48" r:id="rId46" display="170527_소풍_경기천년소풍(1회)_인생낙서 현장기록사진_문화용역주성진 (15).jpg"/>
+    <hyperlink ref="Q49" r:id="rId47" display="170527_소풍_경기천년소풍(1회)_인생낙서 현장기록사진_문화용역주성진 (16).jpg"/>
+    <hyperlink ref="Q50" r:id="rId48" display="170527_소풍_경기천년소풍(1회)_인생낙서 현장기록사진_문화용역주성진 (17).jpg"/>
+    <hyperlink ref="Q51" r:id="rId49" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (27).jpg"/>
+    <hyperlink ref="Q52" r:id="rId50" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (28).jpg"/>
+    <hyperlink ref="Q53" r:id="rId51" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (31).jpg"/>
+    <hyperlink ref="Q54" r:id="rId52" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (35).jpg"/>
+    <hyperlink ref="Q55" r:id="rId53" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (46).jpg"/>
+    <hyperlink ref="Q56" r:id="rId54" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (55).jpg"/>
+    <hyperlink ref="Q57" r:id="rId55" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (56).jpg"/>
+    <hyperlink ref="Q58" r:id="rId56" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (57).jpg"/>
     <hyperlink ref="A2" r:id="rId57"/>
     <hyperlink ref="A4" r:id="rId58"/>
     <hyperlink ref="A5" r:id="rId59"/>

--- a/도민참여_C15(소풍1회).xlsx
+++ b/도민참여_C15(소풍1회).xlsx
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'수집기록물 목록'!$A$1:$X$953</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$BO$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$AX$58</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14446" uniqueCount="4103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14504" uniqueCount="4108">
   <si>
     <t>Name</t>
   </si>
@@ -18799,6 +18799,26 @@
   </si>
   <si>
     <t>전학오기전</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인생낙서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>도전!도의원 현장기록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인생낙서 현장기록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>추억의방 현장기록</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -62847,37 +62867,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR58"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="74" style="40" customWidth="1"/>
-    <col min="2" max="6" width="20.5703125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="22" style="49" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="49" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="42" customWidth="1"/>
     <col min="8" max="8" width="20" style="42" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" style="42" customWidth="1"/>
     <col min="10" max="10" width="21" style="42" customWidth="1"/>
     <col min="11" max="11" width="42.28515625" style="44" customWidth="1"/>
-    <col min="12" max="29" width="35" style="42" customWidth="1"/>
-    <col min="30" max="30" width="25.5703125" style="25" customWidth="1"/>
-    <col min="31" max="31" width="29.7109375" style="33" customWidth="1"/>
-    <col min="32" max="32" width="42.42578125" style="25" customWidth="1"/>
-    <col min="33" max="33" width="15.140625" style="25" customWidth="1"/>
-    <col min="34" max="34" width="29.7109375" style="25" customWidth="1"/>
-    <col min="35" max="35" width="13.7109375" style="25" customWidth="1"/>
-    <col min="36" max="36" width="15.7109375" style="25" customWidth="1"/>
-    <col min="37" max="38" width="19.5703125" style="25" customWidth="1"/>
-    <col min="39" max="39" width="23.28515625" style="33" customWidth="1"/>
-    <col min="40" max="40" width="22.28515625" style="25" customWidth="1"/>
-    <col min="41" max="41" width="20.42578125" style="25" customWidth="1"/>
-    <col min="42" max="44" width="21.42578125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" style="25" customWidth="1"/>
+    <col min="13" max="14" width="29.7109375" style="33" customWidth="1"/>
+    <col min="15" max="15" width="42.42578125" style="25" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="25" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="25" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="25" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="25" customWidth="1"/>
+    <col min="20" max="21" width="19.5703125" style="25" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" style="33" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" style="25" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" style="25" customWidth="1"/>
+    <col min="25" max="27" width="21.42578125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="14" customFormat="1">
+    <row r="1" spans="1:27" s="14" customFormat="1">
       <c r="A1" s="38" t="s">
         <v>2011</v>
       </c>
@@ -62911,71 +62934,56 @@
       <c r="K1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>2012</v>
       </c>
-      <c r="AE1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>3863</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="N1" s="37" t="s">
+        <v>4103</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>1057</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>2013</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>2014</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>2015</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>2016</v>
       </c>
-      <c r="AK1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>2017</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>2018</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>2019</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>2020</v>
       </c>
-      <c r="AO1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>2021</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>2022</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>2023</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:44" collapsed="1">
+    <row r="2" spans="1:27" collapsed="1">
       <c r="A2" s="39" t="s">
         <v>204</v>
       </c>
@@ -63009,50 +63017,53 @@
       <c r="K2" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>2234</v>
       </c>
-      <c r="AE2" s="26" t="s">
+      <c r="M2" s="26" t="s">
         <v>3124</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="N2" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>1140</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI2" s="25" t="s">
+      <c r="R2" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ2" s="25" t="s">
+      <c r="S2" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="T2" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM2" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN2" s="25" t="s">
+      <c r="V2" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W2" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO2" s="25" t="s">
+      <c r="X2" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP2" s="25" t="s">
+      <c r="Y2" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ2" s="25" t="s">
+      <c r="Z2" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR2" s="25" t="s">
+      <c r="AA2" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="3" spans="1:44" collapsed="1">
+    <row r="3" spans="1:27" collapsed="1">
       <c r="A3" s="39" t="s">
         <v>205</v>
       </c>
@@ -63086,50 +63097,53 @@
       <c r="K3" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="AD3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>2235</v>
       </c>
-      <c r="AE3" s="26" t="s">
+      <c r="M3" s="26" t="s">
         <v>3125</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="N3" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O3" s="25" t="s">
         <v>1141</v>
       </c>
-      <c r="AG3" s="25" t="s">
+      <c r="P3" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH3" s="25" t="s">
+      <c r="Q3" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ3" s="25" t="s">
+      <c r="S3" s="25" t="s">
         <v>1259</v>
       </c>
-      <c r="AK3" s="25" t="s">
+      <c r="T3" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM3" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN3" s="25" t="s">
+      <c r="V3" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W3" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO3" s="25" t="s">
+      <c r="X3" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP3" s="25" t="s">
+      <c r="Y3" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ3" s="25" t="s">
+      <c r="Z3" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR3" s="25" t="s">
+      <c r="AA3" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="4" spans="1:44" collapsed="1">
+    <row r="4" spans="1:27" collapsed="1">
       <c r="A4" s="39" t="s">
         <v>207</v>
       </c>
@@ -63163,50 +63177,53 @@
       <c r="K4" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="AD4" s="27" t="s">
+      <c r="L4" s="27" t="s">
         <v>2237</v>
       </c>
-      <c r="AE4" s="26" t="s">
+      <c r="M4" s="26" t="s">
         <v>3127</v>
       </c>
-      <c r="AF4" s="25" t="s">
+      <c r="N4" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>1143</v>
       </c>
-      <c r="AG4" s="25" t="s">
+      <c r="P4" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH4" s="25" t="s">
+      <c r="Q4" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI4" s="25" t="s">
+      <c r="R4" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ4" s="25" t="s">
+      <c r="S4" s="25" t="s">
         <v>1261</v>
       </c>
-      <c r="AK4" s="25" t="s">
+      <c r="T4" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="AM4" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN4" s="25" t="s">
+      <c r="V4" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W4" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO4" s="25" t="s">
+      <c r="X4" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP4" s="25" t="s">
+      <c r="Y4" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ4" s="25" t="s">
+      <c r="Z4" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR4" s="25" t="s">
+      <c r="AA4" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="5" spans="1:44" collapsed="1">
+    <row r="5" spans="1:27" collapsed="1">
       <c r="A5" s="39" t="s">
         <v>208</v>
       </c>
@@ -63240,50 +63257,53 @@
       <c r="K5" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="AD5" s="27" t="s">
+      <c r="L5" s="27" t="s">
         <v>2238</v>
       </c>
-      <c r="AE5" s="26" t="s">
+      <c r="M5" s="26" t="s">
         <v>3128</v>
       </c>
-      <c r="AF5" s="25" t="s">
+      <c r="N5" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O5" s="25" t="s">
         <v>1144</v>
       </c>
-      <c r="AG5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI5" s="25" t="s">
+      <c r="R5" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ5" s="25" t="s">
+      <c r="S5" s="25" t="s">
         <v>1262</v>
       </c>
-      <c r="AK5" s="25" t="s">
+      <c r="T5" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="AM5" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN5" s="25" t="s">
+      <c r="V5" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W5" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO5" s="25" t="s">
+      <c r="X5" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP5" s="25" t="s">
+      <c r="Y5" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ5" s="25" t="s">
+      <c r="Z5" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR5" s="25" t="s">
+      <c r="AA5" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="6" spans="1:44" collapsed="1">
+    <row r="6" spans="1:27" collapsed="1">
       <c r="A6" s="39" t="s">
         <v>209</v>
       </c>
@@ -63317,50 +63337,53 @@
       <c r="K6" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="AD6" s="27" t="s">
+      <c r="L6" s="27" t="s">
         <v>2239</v>
       </c>
-      <c r="AE6" s="26" t="s">
+      <c r="M6" s="26" t="s">
         <v>3129</v>
       </c>
-      <c r="AF6" s="25" t="s">
+      <c r="N6" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O6" s="25" t="s">
         <v>1145</v>
       </c>
-      <c r="AG6" s="25" t="s">
+      <c r="P6" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH6" s="25" t="s">
+      <c r="Q6" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI6" s="25" t="s">
+      <c r="R6" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ6" s="25" t="s">
+      <c r="S6" s="25" t="s">
         <v>1263</v>
       </c>
-      <c r="AK6" s="25" t="s">
+      <c r="T6" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM6" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN6" s="25" t="s">
+      <c r="V6" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W6" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO6" s="25" t="s">
+      <c r="X6" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP6" s="25" t="s">
+      <c r="Y6" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ6" s="25" t="s">
+      <c r="Z6" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR6" s="25" t="s">
+      <c r="AA6" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="7" spans="1:44" collapsed="1">
+    <row r="7" spans="1:27" collapsed="1">
       <c r="A7" s="39" t="s">
         <v>211</v>
       </c>
@@ -63394,50 +63417,53 @@
       <c r="K7" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="AD7" s="27" t="s">
+      <c r="L7" s="27" t="s">
         <v>2240</v>
       </c>
-      <c r="AE7" s="26" t="s">
+      <c r="M7" s="26" t="s">
         <v>3130</v>
       </c>
-      <c r="AF7" s="25" t="s">
+      <c r="N7" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O7" s="25" t="s">
         <v>1146</v>
       </c>
-      <c r="AG7" s="25" t="s">
+      <c r="P7" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH7" s="25" t="s">
+      <c r="Q7" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI7" s="25" t="s">
+      <c r="R7" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ7" s="25" t="s">
+      <c r="S7" s="25" t="s">
         <v>1256</v>
       </c>
-      <c r="AK7" s="25" t="s">
+      <c r="T7" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM7" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN7" s="25" t="s">
+      <c r="V7" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W7" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO7" s="25" t="s">
+      <c r="X7" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP7" s="25" t="s">
+      <c r="Y7" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ7" s="25" t="s">
+      <c r="Z7" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR7" s="25" t="s">
+      <c r="AA7" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="8" spans="1:44" collapsed="1">
+    <row r="8" spans="1:27" collapsed="1">
       <c r="A8" s="39" t="s">
         <v>214</v>
       </c>
@@ -63471,50 +63497,53 @@
       <c r="K8" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AD8" s="27" t="s">
+      <c r="L8" s="27" t="s">
         <v>2242</v>
       </c>
-      <c r="AE8" s="26" t="s">
+      <c r="M8" s="26" t="s">
         <v>3132</v>
       </c>
-      <c r="AF8" s="25" t="s">
+      <c r="N8" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O8" s="25" t="s">
         <v>1148</v>
       </c>
-      <c r="AG8" s="25" t="s">
+      <c r="P8" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH8" s="25" t="s">
+      <c r="Q8" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI8" s="25" t="s">
+      <c r="R8" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ8" s="25" t="s">
+      <c r="S8" s="25" t="s">
         <v>1264</v>
       </c>
-      <c r="AK8" s="25" t="s">
+      <c r="T8" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="AM8" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN8" s="25" t="s">
+      <c r="V8" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W8" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO8" s="25" t="s">
+      <c r="X8" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP8" s="25" t="s">
+      <c r="Y8" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ8" s="25" t="s">
+      <c r="Z8" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR8" s="25" t="s">
+      <c r="AA8" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="9" spans="1:44" collapsed="1">
+    <row r="9" spans="1:27" collapsed="1">
       <c r="A9" s="39" t="s">
         <v>216</v>
       </c>
@@ -63548,50 +63577,53 @@
       <c r="K9" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="AD9" s="27" t="s">
+      <c r="L9" s="27" t="s">
         <v>2243</v>
       </c>
-      <c r="AE9" s="26" t="s">
+      <c r="M9" s="26" t="s">
         <v>3133</v>
       </c>
-      <c r="AF9" s="25" t="s">
+      <c r="N9" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O9" s="25" t="s">
         <v>1149</v>
       </c>
-      <c r="AG9" s="25" t="s">
+      <c r="P9" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH9" s="25" t="s">
+      <c r="Q9" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI9" s="25" t="s">
+      <c r="R9" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ9" s="25" t="s">
+      <c r="S9" s="25" t="s">
         <v>1265</v>
       </c>
-      <c r="AK9" s="25" t="s">
+      <c r="T9" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="AM9" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN9" s="25" t="s">
+      <c r="V9" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W9" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO9" s="25" t="s">
+      <c r="X9" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP9" s="25" t="s">
+      <c r="Y9" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ9" s="25" t="s">
+      <c r="Z9" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR9" s="25" t="s">
+      <c r="AA9" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="10" spans="1:44" collapsed="1">
+    <row r="10" spans="1:27" collapsed="1">
       <c r="A10" s="39" t="s">
         <v>218</v>
       </c>
@@ -63625,50 +63657,53 @@
       <c r="K10" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="AD10" s="27" t="s">
+      <c r="L10" s="27" t="s">
         <v>2244</v>
       </c>
-      <c r="AE10" s="26" t="s">
+      <c r="M10" s="26" t="s">
         <v>3134</v>
       </c>
-      <c r="AF10" s="25" t="s">
+      <c r="N10" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O10" s="25" t="s">
         <v>1150</v>
       </c>
-      <c r="AG10" s="25" t="s">
+      <c r="P10" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH10" s="25" t="s">
+      <c r="Q10" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI10" s="25" t="s">
+      <c r="R10" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ10" s="25" t="s">
+      <c r="S10" s="25" t="s">
         <v>1254</v>
       </c>
-      <c r="AK10" s="25" t="s">
+      <c r="T10" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM10" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN10" s="25" t="s">
+      <c r="V10" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W10" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO10" s="25" t="s">
+      <c r="X10" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP10" s="25" t="s">
+      <c r="Y10" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ10" s="25" t="s">
+      <c r="Z10" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR10" s="25" t="s">
+      <c r="AA10" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="11" spans="1:44" collapsed="1">
+    <row r="11" spans="1:27" collapsed="1">
       <c r="A11" s="39" t="s">
         <v>223</v>
       </c>
@@ -63702,50 +63737,53 @@
       <c r="K11" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="AD11" s="27" t="s">
+      <c r="L11" s="27" t="s">
         <v>2247</v>
       </c>
-      <c r="AE11" s="26" t="s">
+      <c r="M11" s="26" t="s">
         <v>3137</v>
       </c>
-      <c r="AF11" s="25" t="s">
+      <c r="N11" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O11" s="25" t="s">
         <v>1153</v>
       </c>
-      <c r="AG11" s="25" t="s">
+      <c r="P11" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH11" s="25" t="s">
+      <c r="Q11" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI11" s="25" t="s">
+      <c r="R11" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ11" s="25" t="s">
+      <c r="S11" s="25" t="s">
         <v>1254</v>
       </c>
-      <c r="AK11" s="25" t="s">
+      <c r="T11" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="AM11" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN11" s="25" t="s">
+      <c r="V11" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W11" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO11" s="25" t="s">
+      <c r="X11" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP11" s="25" t="s">
+      <c r="Y11" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ11" s="25" t="s">
+      <c r="Z11" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR11" s="25" t="s">
+      <c r="AA11" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="12" spans="1:44" collapsed="1">
+    <row r="12" spans="1:27" collapsed="1">
       <c r="A12" s="39" t="s">
         <v>225</v>
       </c>
@@ -63779,50 +63817,53 @@
       <c r="K12" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="AD12" s="27" t="s">
+      <c r="L12" s="27" t="s">
         <v>2248</v>
       </c>
-      <c r="AE12" s="26" t="s">
+      <c r="M12" s="26" t="s">
         <v>3138</v>
       </c>
-      <c r="AF12" s="25" t="s">
+      <c r="N12" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O12" s="25" t="s">
         <v>1154</v>
       </c>
-      <c r="AG12" s="25" t="s">
+      <c r="P12" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH12" s="25" t="s">
+      <c r="Q12" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI12" s="25" t="s">
+      <c r="R12" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ12" s="25" t="s">
+      <c r="S12" s="25" t="s">
         <v>1262</v>
       </c>
-      <c r="AK12" s="25" t="s">
+      <c r="T12" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="AM12" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN12" s="25" t="s">
+      <c r="V12" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W12" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO12" s="25" t="s">
+      <c r="X12" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP12" s="25" t="s">
+      <c r="Y12" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ12" s="25" t="s">
+      <c r="Z12" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR12" s="25" t="s">
+      <c r="AA12" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="13" spans="1:44" collapsed="1">
+    <row r="13" spans="1:27" collapsed="1">
       <c r="A13" s="39" t="s">
         <v>227</v>
       </c>
@@ -63856,50 +63897,53 @@
       <c r="K13" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="AD13" s="27" t="s">
+      <c r="L13" s="27" t="s">
         <v>2249</v>
       </c>
-      <c r="AE13" s="26" t="s">
+      <c r="M13" s="26" t="s">
         <v>3139</v>
       </c>
-      <c r="AF13" s="25" t="s">
+      <c r="N13" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O13" s="25" t="s">
         <v>1155</v>
       </c>
-      <c r="AG13" s="25" t="s">
+      <c r="P13" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH13" s="25" t="s">
+      <c r="Q13" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI13" s="25" t="s">
+      <c r="R13" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ13" s="25" t="s">
+      <c r="S13" s="25" t="s">
         <v>1266</v>
       </c>
-      <c r="AK13" s="25" t="s">
+      <c r="T13" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM13" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN13" s="25" t="s">
+      <c r="V13" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W13" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO13" s="25" t="s">
+      <c r="X13" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP13" s="25" t="s">
+      <c r="Y13" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ13" s="25" t="s">
+      <c r="Z13" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR13" s="25" t="s">
+      <c r="AA13" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="14" spans="1:44" collapsed="1">
+    <row r="14" spans="1:27" collapsed="1">
       <c r="A14" s="39" t="s">
         <v>229</v>
       </c>
@@ -63933,50 +63977,53 @@
       <c r="K14" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="AD14" s="27" t="s">
+      <c r="L14" s="27" t="s">
         <v>2250</v>
       </c>
-      <c r="AE14" s="26" t="s">
+      <c r="M14" s="26" t="s">
         <v>3140</v>
       </c>
-      <c r="AF14" s="25" t="s">
+      <c r="N14" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O14" s="25" t="s">
         <v>1156</v>
       </c>
-      <c r="AG14" s="25" t="s">
+      <c r="P14" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH14" s="25" t="s">
+      <c r="Q14" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI14" s="25" t="s">
+      <c r="R14" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ14" s="25" t="s">
+      <c r="S14" s="25" t="s">
         <v>1259</v>
       </c>
-      <c r="AK14" s="25" t="s">
+      <c r="T14" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM14" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN14" s="25" t="s">
+      <c r="V14" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W14" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO14" s="25" t="s">
+      <c r="X14" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP14" s="25" t="s">
+      <c r="Y14" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ14" s="25" t="s">
+      <c r="Z14" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR14" s="25" t="s">
+      <c r="AA14" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="15" spans="1:44" collapsed="1">
+    <row r="15" spans="1:27" collapsed="1">
       <c r="A15" s="39" t="s">
         <v>231</v>
       </c>
@@ -64010,50 +64057,53 @@
       <c r="K15" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="AD15" s="27" t="s">
+      <c r="L15" s="27" t="s">
         <v>2252</v>
       </c>
-      <c r="AE15" s="26" t="s">
+      <c r="M15" s="26" t="s">
         <v>3142</v>
       </c>
-      <c r="AF15" s="25" t="s">
+      <c r="N15" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O15" s="25" t="s">
         <v>1158</v>
       </c>
-      <c r="AG15" s="25" t="s">
+      <c r="P15" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH15" s="25" t="s">
+      <c r="Q15" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI15" s="25" t="s">
+      <c r="R15" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ15" s="25" t="s">
+      <c r="S15" s="25" t="s">
         <v>1267</v>
       </c>
-      <c r="AK15" s="25" t="s">
+      <c r="T15" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM15" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN15" s="25" t="s">
+      <c r="V15" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W15" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO15" s="25" t="s">
+      <c r="X15" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP15" s="25" t="s">
+      <c r="Y15" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ15" s="25" t="s">
+      <c r="Z15" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR15" s="25" t="s">
+      <c r="AA15" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="16" spans="1:44" collapsed="1">
+    <row r="16" spans="1:27" collapsed="1">
       <c r="A16" s="39" t="s">
         <v>233</v>
       </c>
@@ -64087,50 +64137,53 @@
       <c r="K16" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="AD16" s="27" t="s">
+      <c r="L16" s="27" t="s">
         <v>2253</v>
       </c>
-      <c r="AE16" s="26" t="s">
+      <c r="M16" s="26" t="s">
         <v>3143</v>
       </c>
-      <c r="AF16" s="25" t="s">
+      <c r="N16" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O16" s="25" t="s">
         <v>1159</v>
       </c>
-      <c r="AG16" s="25" t="s">
+      <c r="P16" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH16" s="25" t="s">
+      <c r="Q16" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI16" s="25" t="s">
+      <c r="R16" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ16" s="25" t="s">
+      <c r="S16" s="25" t="s">
         <v>1264</v>
       </c>
-      <c r="AK16" s="25" t="s">
+      <c r="T16" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="AM16" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN16" s="25" t="s">
+      <c r="V16" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W16" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO16" s="25" t="s">
+      <c r="X16" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP16" s="25" t="s">
+      <c r="Y16" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ16" s="25" t="s">
+      <c r="Z16" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR16" s="25" t="s">
+      <c r="AA16" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="17" spans="1:44" collapsed="1">
+    <row r="17" spans="1:27" collapsed="1">
       <c r="A17" s="39" t="s">
         <v>237</v>
       </c>
@@ -64164,50 +64217,53 @@
       <c r="K17" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="AD17" s="27" t="s">
+      <c r="L17" s="27" t="s">
         <v>2255</v>
       </c>
-      <c r="AE17" s="26" t="s">
+      <c r="M17" s="26" t="s">
         <v>3145</v>
       </c>
-      <c r="AF17" s="25" t="s">
+      <c r="N17" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O17" s="25" t="s">
         <v>2032</v>
       </c>
-      <c r="AG17" s="25" t="s">
+      <c r="P17" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH17" s="25" t="s">
+      <c r="Q17" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI17" s="25" t="s">
+      <c r="R17" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ17" s="25" t="s">
+      <c r="S17" s="25" t="s">
         <v>1268</v>
       </c>
-      <c r="AK17" s="25" t="s">
+      <c r="T17" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM17" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN17" s="25" t="s">
+      <c r="V17" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W17" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO17" s="25" t="s">
+      <c r="X17" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP17" s="25" t="s">
+      <c r="Y17" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ17" s="25" t="s">
+      <c r="Z17" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR17" s="25" t="s">
+      <c r="AA17" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="18" spans="1:44" collapsed="1">
+    <row r="18" spans="1:27" collapsed="1">
       <c r="A18" s="39" t="s">
         <v>239</v>
       </c>
@@ -64237,50 +64293,53 @@
       <c r="K18" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="AD18" s="27" t="s">
+      <c r="L18" s="27" t="s">
         <v>2256</v>
       </c>
-      <c r="AE18" s="26" t="s">
+      <c r="M18" s="26" t="s">
         <v>3146</v>
       </c>
-      <c r="AF18" s="25" t="s">
+      <c r="N18" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O18" s="25" t="s">
         <v>1448</v>
       </c>
-      <c r="AG18" s="25" t="s">
+      <c r="P18" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH18" s="25" t="s">
+      <c r="Q18" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI18" s="25" t="s">
+      <c r="R18" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ18" s="25" t="s">
+      <c r="S18" s="25" t="s">
         <v>1269</v>
       </c>
-      <c r="AK18" s="25" t="s">
+      <c r="T18" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM18" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN18" s="25" t="s">
+      <c r="V18" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W18" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO18" s="25" t="s">
+      <c r="X18" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP18" s="25" t="s">
+      <c r="Y18" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ18" s="25" t="s">
+      <c r="Z18" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR18" s="25" t="s">
+      <c r="AA18" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="19" spans="1:44" collapsed="1">
+    <row r="19" spans="1:27" collapsed="1">
       <c r="A19" s="39" t="s">
         <v>242</v>
       </c>
@@ -64314,50 +64373,53 @@
       <c r="K19" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="AD19" s="27" t="s">
+      <c r="L19" s="27" t="s">
         <v>2258</v>
       </c>
-      <c r="AE19" s="26" t="s">
+      <c r="M19" s="26" t="s">
         <v>3148</v>
       </c>
-      <c r="AF19" s="25" t="s">
+      <c r="N19" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O19" s="25" t="s">
         <v>1162</v>
       </c>
-      <c r="AG19" s="25" t="s">
+      <c r="P19" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH19" s="25" t="s">
+      <c r="Q19" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI19" s="25" t="s">
+      <c r="R19" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ19" s="25" t="s">
+      <c r="S19" s="25" t="s">
         <v>1263</v>
       </c>
-      <c r="AK19" s="25" t="s">
+      <c r="T19" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="AM19" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN19" s="25" t="s">
+      <c r="V19" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W19" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO19" s="25" t="s">
+      <c r="X19" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP19" s="25" t="s">
+      <c r="Y19" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ19" s="25" t="s">
+      <c r="Z19" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR19" s="25" t="s">
+      <c r="AA19" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="20" spans="1:44" collapsed="1">
+    <row r="20" spans="1:27" collapsed="1">
       <c r="A20" s="39" t="s">
         <v>245</v>
       </c>
@@ -64391,50 +64453,53 @@
       <c r="K20" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="AD20" s="27" t="s">
+      <c r="L20" s="27" t="s">
         <v>2260</v>
       </c>
-      <c r="AE20" s="26" t="s">
+      <c r="M20" s="26" t="s">
         <v>3150</v>
       </c>
-      <c r="AF20" s="25" t="s">
+      <c r="N20" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O20" s="25" t="s">
         <v>1164</v>
       </c>
-      <c r="AG20" s="25" t="s">
+      <c r="P20" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH20" s="25" t="s">
+      <c r="Q20" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI20" s="25" t="s">
+      <c r="R20" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ20" s="25" t="s">
+      <c r="S20" s="25" t="s">
         <v>1270</v>
       </c>
-      <c r="AK20" s="25" t="s">
+      <c r="T20" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM20" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN20" s="25" t="s">
+      <c r="V20" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W20" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO20" s="25" t="s">
+      <c r="X20" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP20" s="25" t="s">
+      <c r="Y20" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ20" s="25" t="s">
+      <c r="Z20" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR20" s="25" t="s">
+      <c r="AA20" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="21" spans="1:44" collapsed="1">
+    <row r="21" spans="1:27" collapsed="1">
       <c r="A21" s="39" t="s">
         <v>247</v>
       </c>
@@ -64468,50 +64533,53 @@
       <c r="K21" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="AD21" s="27" t="s">
+      <c r="L21" s="27" t="s">
         <v>2261</v>
       </c>
-      <c r="AE21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>3151</v>
       </c>
-      <c r="AF21" s="25" t="s">
+      <c r="N21" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O21" s="25" t="s">
         <v>1165</v>
       </c>
-      <c r="AG21" s="25" t="s">
+      <c r="P21" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH21" s="25" t="s">
+      <c r="Q21" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI21" s="25" t="s">
+      <c r="R21" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ21" s="25" t="s">
+      <c r="S21" s="25" t="s">
         <v>1271</v>
       </c>
-      <c r="AK21" s="25" t="s">
+      <c r="T21" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM21" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN21" s="25" t="s">
+      <c r="V21" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W21" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO21" s="25" t="s">
+      <c r="X21" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP21" s="25" t="s">
+      <c r="Y21" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ21" s="25" t="s">
+      <c r="Z21" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR21" s="25" t="s">
+      <c r="AA21" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="22" spans="1:44" collapsed="1">
+    <row r="22" spans="1:27" collapsed="1">
       <c r="A22" s="39" t="s">
         <v>250</v>
       </c>
@@ -64541,50 +64609,53 @@
       <c r="K22" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="AD22" s="27" t="s">
+      <c r="L22" s="27" t="s">
         <v>2263</v>
       </c>
-      <c r="AE22" s="26" t="s">
+      <c r="M22" s="26" t="s">
         <v>3153</v>
       </c>
-      <c r="AF22" s="25" t="s">
+      <c r="N22" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O22" s="25" t="s">
         <v>1167</v>
       </c>
-      <c r="AG22" s="25" t="s">
+      <c r="P22" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH22" s="25" t="s">
+      <c r="Q22" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI22" s="25" t="s">
+      <c r="R22" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ22" s="25" t="s">
+      <c r="S22" s="25" t="s">
         <v>1270</v>
       </c>
-      <c r="AK22" s="25" t="s">
+      <c r="T22" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="AM22" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN22" s="25" t="s">
+      <c r="V22" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W22" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO22" s="25" t="s">
+      <c r="X22" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP22" s="25" t="s">
+      <c r="Y22" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ22" s="25" t="s">
+      <c r="Z22" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR22" s="25" t="s">
+      <c r="AA22" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="23" spans="1:44" collapsed="1">
+    <row r="23" spans="1:27" collapsed="1">
       <c r="A23" s="39" t="s">
         <v>257</v>
       </c>
@@ -64616,50 +64687,53 @@
       <c r="K23" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="AD23" s="27" t="s">
+      <c r="L23" s="27" t="s">
         <v>2267</v>
       </c>
-      <c r="AE23" s="26" t="s">
+      <c r="M23" s="26" t="s">
         <v>3157</v>
       </c>
-      <c r="AF23" s="25" t="s">
+      <c r="N23" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O23" s="25" t="s">
         <v>1171</v>
       </c>
-      <c r="AG23" s="25" t="s">
+      <c r="P23" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH23" s="25" t="s">
+      <c r="Q23" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI23" s="25" t="s">
+      <c r="R23" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ23" s="25" t="s">
+      <c r="S23" s="25" t="s">
         <v>1273</v>
       </c>
-      <c r="AK23" s="25" t="s">
+      <c r="T23" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="AM23" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN23" s="25" t="s">
+      <c r="V23" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W23" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO23" s="25" t="s">
+      <c r="X23" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP23" s="25" t="s">
+      <c r="Y23" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ23" s="25" t="s">
+      <c r="Z23" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR23" s="25" t="s">
+      <c r="AA23" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="24" spans="1:44" collapsed="1">
+    <row r="24" spans="1:27" collapsed="1">
       <c r="A24" s="39" t="s">
         <v>260</v>
       </c>
@@ -64689,50 +64763,53 @@
       <c r="K24" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="AD24" s="27" t="s">
+      <c r="L24" s="27" t="s">
         <v>2269</v>
       </c>
-      <c r="AE24" s="26" t="s">
+      <c r="M24" s="26" t="s">
         <v>3159</v>
       </c>
-      <c r="AF24" s="25" t="s">
+      <c r="N24" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O24" s="25" t="s">
         <v>1173</v>
       </c>
-      <c r="AG24" s="25" t="s">
+      <c r="P24" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH24" s="25" t="s">
+      <c r="Q24" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI24" s="25" t="s">
+      <c r="R24" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ24" s="25" t="s">
+      <c r="S24" s="25" t="s">
         <v>1274</v>
       </c>
-      <c r="AK24" s="25" t="s">
+      <c r="T24" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM24" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN24" s="25" t="s">
+      <c r="V24" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W24" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO24" s="25" t="s">
+      <c r="X24" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP24" s="25" t="s">
+      <c r="Y24" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ24" s="25" t="s">
+      <c r="Z24" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR24" s="25" t="s">
+      <c r="AA24" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="25" spans="1:44" collapsed="1">
+    <row r="25" spans="1:27" collapsed="1">
       <c r="A25" s="39" t="s">
         <v>263</v>
       </c>
@@ -64764,50 +64841,53 @@
       <c r="K25" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="AD25" s="27" t="s">
+      <c r="L25" s="27" t="s">
         <v>2272</v>
       </c>
-      <c r="AE25" s="26" t="s">
+      <c r="M25" s="26" t="s">
         <v>3162</v>
       </c>
-      <c r="AF25" s="25" t="s">
+      <c r="N25" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O25" s="25" t="s">
         <v>1176</v>
       </c>
-      <c r="AG25" s="25" t="s">
+      <c r="P25" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH25" s="25" t="s">
+      <c r="Q25" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI25" s="25" t="s">
+      <c r="R25" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ25" s="25" t="s">
+      <c r="S25" s="25" t="s">
         <v>1275</v>
       </c>
-      <c r="AK25" s="25" t="s">
+      <c r="T25" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="AM25" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN25" s="25" t="s">
+      <c r="V25" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W25" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO25" s="25" t="s">
+      <c r="X25" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP25" s="25" t="s">
+      <c r="Y25" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ25" s="25" t="s">
+      <c r="Z25" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR25" s="25" t="s">
+      <c r="AA25" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="26" spans="1:44" collapsed="1">
+    <row r="26" spans="1:27" collapsed="1">
       <c r="A26" s="39" t="s">
         <v>265</v>
       </c>
@@ -64835,50 +64915,53 @@
       <c r="K26" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="AD26" s="27" t="s">
+      <c r="L26" s="27" t="s">
         <v>2273</v>
       </c>
-      <c r="AE26" s="26" t="s">
+      <c r="M26" s="26" t="s">
         <v>3163</v>
       </c>
-      <c r="AF26" s="25" t="s">
+      <c r="N26" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O26" s="25" t="s">
         <v>1177</v>
       </c>
-      <c r="AG26" s="25" t="s">
+      <c r="P26" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH26" s="25" t="s">
+      <c r="Q26" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI26" s="25" t="s">
+      <c r="R26" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ26" s="25" t="s">
+      <c r="S26" s="25" t="s">
         <v>1276</v>
       </c>
-      <c r="AK26" s="25" t="s">
+      <c r="T26" s="25" t="s">
         <v>1255</v>
       </c>
-      <c r="AM26" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN26" s="25" t="s">
+      <c r="V26" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W26" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO26" s="25" t="s">
+      <c r="X26" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP26" s="25" t="s">
+      <c r="Y26" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ26" s="25" t="s">
+      <c r="Z26" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR26" s="25" t="s">
+      <c r="AA26" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="27" spans="1:44" collapsed="1">
+    <row r="27" spans="1:27" collapsed="1">
       <c r="A27" s="39" t="s">
         <v>268</v>
       </c>
@@ -64906,50 +64989,53 @@
       <c r="K27" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="AD27" s="27" t="s">
+      <c r="L27" s="27" t="s">
         <v>2275</v>
       </c>
-      <c r="AE27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>3165</v>
       </c>
-      <c r="AF27" s="25" t="s">
+      <c r="N27" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O27" s="25" t="s">
         <v>1179</v>
       </c>
-      <c r="AG27" s="25" t="s">
+      <c r="P27" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH27" s="25" t="s">
+      <c r="Q27" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI27" s="25" t="s">
+      <c r="R27" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ27" s="25" t="s">
+      <c r="S27" s="25" t="s">
         <v>1277</v>
       </c>
-      <c r="AK27" s="25" t="s">
+      <c r="T27" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="AM27" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN27" s="25" t="s">
+      <c r="V27" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W27" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO27" s="25" t="s">
+      <c r="X27" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP27" s="25" t="s">
+      <c r="Y27" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ27" s="25" t="s">
+      <c r="Z27" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR27" s="25" t="s">
+      <c r="AA27" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="28" spans="1:44" collapsed="1">
+    <row r="28" spans="1:27" collapsed="1">
       <c r="A28" s="39" t="s">
         <v>270</v>
       </c>
@@ -64981,50 +65067,53 @@
       <c r="K28" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="AD28" s="27" t="s">
+      <c r="L28" s="27" t="s">
         <v>2277</v>
       </c>
-      <c r="AE28" s="26" t="s">
+      <c r="M28" s="26" t="s">
         <v>3167</v>
       </c>
-      <c r="AF28" s="25" t="s">
+      <c r="N28" s="26" t="s">
+        <v>4104</v>
+      </c>
+      <c r="O28" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="AG28" s="25" t="s">
+      <c r="P28" s="25" t="s">
         <v>2004</v>
       </c>
-      <c r="AH28" s="25" t="s">
+      <c r="Q28" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI28" s="25" t="s">
+      <c r="R28" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ28" s="25" t="s">
+      <c r="S28" s="25" t="s">
         <v>1272</v>
       </c>
-      <c r="AK28" s="25" t="s">
+      <c r="T28" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="AM28" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN28" s="25" t="s">
+      <c r="V28" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W28" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="AO28" s="25" t="s">
+      <c r="X28" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP28" s="25" t="s">
+      <c r="Y28" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="AQ28" s="25" t="s">
+      <c r="Z28" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR28" s="25" t="s">
+      <c r="AA28" s="25" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="29" spans="1:44" collapsed="1">
+    <row r="29" spans="1:27" collapsed="1">
       <c r="A29" s="39" t="s">
         <v>374</v>
       </c>
@@ -65058,50 +65147,53 @@
       <c r="K29" s="44" t="s">
         <v>393</v>
       </c>
-      <c r="AD29" s="27" t="s">
+      <c r="L29" s="27" t="s">
         <v>2377</v>
       </c>
-      <c r="AE29" s="26" t="s">
+      <c r="M29" s="26" t="s">
         <v>3267</v>
       </c>
-      <c r="AF29" s="25" t="s">
+      <c r="N29" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O29" s="25" t="s">
         <v>1526</v>
       </c>
-      <c r="AG29" s="25" t="s">
+      <c r="P29" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH29" s="25" t="s">
+      <c r="Q29" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI29" s="25" t="s">
+      <c r="R29" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ29" s="25" t="s">
+      <c r="S29" s="25" t="s">
         <v>1285</v>
       </c>
-      <c r="AK29" s="25" t="s">
+      <c r="T29" s="25" t="s">
         <v>1286</v>
       </c>
-      <c r="AM29" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN29" s="25" t="s">
+      <c r="V29" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W29" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO29" s="25" t="s">
+      <c r="X29" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP29" s="25" t="s">
+      <c r="Y29" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ29" s="25" t="s">
+      <c r="Z29" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR29" s="25" t="s">
+      <c r="AA29" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="30" spans="1:44" collapsed="1">
+    <row r="30" spans="1:27" collapsed="1">
       <c r="A30" s="39" t="s">
         <v>391</v>
       </c>
@@ -65129,50 +65221,53 @@
       <c r="K30" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="AD30" s="27" t="s">
+      <c r="L30" s="27" t="s">
         <v>2394</v>
       </c>
-      <c r="AE30" s="26" t="s">
+      <c r="M30" s="26" t="s">
         <v>3284</v>
       </c>
-      <c r="AF30" s="25" t="s">
+      <c r="N30" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O30" s="25" t="s">
         <v>1543</v>
       </c>
-      <c r="AG30" s="25" t="s">
+      <c r="P30" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH30" s="25" t="s">
+      <c r="Q30" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI30" s="25" t="s">
+      <c r="R30" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ30" s="25" t="s">
+      <c r="S30" s="25" t="s">
         <v>1284</v>
       </c>
-      <c r="AK30" s="25" t="s">
+      <c r="T30" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM30" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN30" s="25" t="s">
+      <c r="V30" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W30" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO30" s="25" t="s">
+      <c r="X30" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP30" s="25" t="s">
+      <c r="Y30" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ30" s="25" t="s">
+      <c r="Z30" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR30" s="25" t="s">
+      <c r="AA30" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="31" spans="1:44" collapsed="1">
+    <row r="31" spans="1:27" collapsed="1">
       <c r="A31" s="39" t="s">
         <v>392</v>
       </c>
@@ -65200,50 +65295,53 @@
       <c r="K31" s="44" t="s">
         <v>415</v>
       </c>
-      <c r="AD31" s="27" t="s">
+      <c r="L31" s="27" t="s">
         <v>2395</v>
       </c>
-      <c r="AE31" s="26" t="s">
+      <c r="M31" s="26" t="s">
         <v>3285</v>
       </c>
-      <c r="AF31" s="25" t="s">
+      <c r="N31" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O31" s="25" t="s">
         <v>1544</v>
       </c>
-      <c r="AG31" s="25" t="s">
+      <c r="P31" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH31" s="25" t="s">
+      <c r="Q31" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI31" s="25" t="s">
+      <c r="R31" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ31" s="25" t="s">
+      <c r="S31" s="25" t="s">
         <v>1289</v>
       </c>
-      <c r="AK31" s="25" t="s">
+      <c r="T31" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM31" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN31" s="25" t="s">
+      <c r="V31" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W31" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO31" s="25" t="s">
+      <c r="X31" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP31" s="25" t="s">
+      <c r="Y31" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ31" s="25" t="s">
+      <c r="Z31" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR31" s="25" t="s">
+      <c r="AA31" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="32" spans="1:44" collapsed="1">
+    <row r="32" spans="1:27" collapsed="1">
       <c r="A32" s="39" t="s">
         <v>394</v>
       </c>
@@ -65273,50 +65371,53 @@
       <c r="K32" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="AD32" s="27" t="s">
+      <c r="L32" s="27" t="s">
         <v>2396</v>
       </c>
-      <c r="AE32" s="26" t="s">
+      <c r="M32" s="26" t="s">
         <v>3286</v>
       </c>
-      <c r="AF32" s="25" t="s">
+      <c r="N32" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O32" s="25" t="s">
         <v>1545</v>
       </c>
-      <c r="AG32" s="25" t="s">
+      <c r="P32" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH32" s="25" t="s">
+      <c r="Q32" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI32" s="25" t="s">
+      <c r="R32" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ32" s="25" t="s">
+      <c r="S32" s="25" t="s">
         <v>1290</v>
       </c>
-      <c r="AK32" s="25" t="s">
+      <c r="T32" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM32" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN32" s="25" t="s">
+      <c r="V32" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W32" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO32" s="25" t="s">
+      <c r="X32" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP32" s="25" t="s">
+      <c r="Y32" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ32" s="25" t="s">
+      <c r="Z32" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR32" s="25" t="s">
+      <c r="AA32" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="33" spans="1:44" collapsed="1">
+    <row r="33" spans="1:27" collapsed="1">
       <c r="A33" s="39" t="s">
         <v>395</v>
       </c>
@@ -65344,50 +65445,53 @@
       <c r="K33" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="AD33" s="27" t="s">
+      <c r="L33" s="27" t="s">
         <v>2397</v>
       </c>
-      <c r="AE33" s="26" t="s">
+      <c r="M33" s="26" t="s">
         <v>3287</v>
       </c>
-      <c r="AF33" s="25" t="s">
+      <c r="N33" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O33" s="25" t="s">
         <v>1546</v>
       </c>
-      <c r="AG33" s="25" t="s">
+      <c r="P33" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH33" s="25" t="s">
+      <c r="Q33" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI33" s="25" t="s">
+      <c r="R33" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ33" s="25" t="s">
+      <c r="S33" s="25" t="s">
         <v>1288</v>
       </c>
-      <c r="AK33" s="25" t="s">
+      <c r="T33" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM33" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN33" s="25" t="s">
+      <c r="V33" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W33" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO33" s="25" t="s">
+      <c r="X33" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP33" s="25" t="s">
+      <c r="Y33" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ33" s="25" t="s">
+      <c r="Z33" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR33" s="25" t="s">
+      <c r="AA33" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="34" spans="1:44" collapsed="1">
+    <row r="34" spans="1:27" collapsed="1">
       <c r="A34" s="39" t="s">
         <v>396</v>
       </c>
@@ -65417,50 +65521,53 @@
       <c r="K34" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="AD34" s="27" t="s">
+      <c r="L34" s="27" t="s">
         <v>2398</v>
       </c>
-      <c r="AE34" s="26" t="s">
+      <c r="M34" s="26" t="s">
         <v>3288</v>
       </c>
-      <c r="AF34" s="25" t="s">
+      <c r="N34" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O34" s="25" t="s">
         <v>1547</v>
       </c>
-      <c r="AG34" s="25" t="s">
+      <c r="P34" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH34" s="25" t="s">
+      <c r="Q34" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI34" s="25" t="s">
+      <c r="R34" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ34" s="25" t="s">
+      <c r="S34" s="25" t="s">
         <v>1291</v>
       </c>
-      <c r="AK34" s="25" t="s">
+      <c r="T34" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM34" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN34" s="25" t="s">
+      <c r="V34" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W34" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO34" s="25" t="s">
+      <c r="X34" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP34" s="25" t="s">
+      <c r="Y34" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ34" s="25" t="s">
+      <c r="Z34" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR34" s="25" t="s">
+      <c r="AA34" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="35" spans="1:44" collapsed="1">
+    <row r="35" spans="1:27" collapsed="1">
       <c r="A35" s="39" t="s">
         <v>397</v>
       </c>
@@ -65490,50 +65597,53 @@
       <c r="K35" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="AD35" s="27" t="s">
+      <c r="L35" s="27" t="s">
         <v>2399</v>
       </c>
-      <c r="AE35" s="26" t="s">
+      <c r="M35" s="26" t="s">
         <v>3289</v>
       </c>
-      <c r="AF35" s="25" t="s">
+      <c r="N35" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O35" s="25" t="s">
         <v>1548</v>
       </c>
-      <c r="AG35" s="25" t="s">
+      <c r="P35" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH35" s="25" t="s">
+      <c r="Q35" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI35" s="25" t="s">
+      <c r="R35" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ35" s="25" t="s">
+      <c r="S35" s="25" t="s">
         <v>1288</v>
       </c>
-      <c r="AK35" s="25" t="s">
+      <c r="T35" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM35" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN35" s="25" t="s">
+      <c r="V35" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W35" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO35" s="25" t="s">
+      <c r="X35" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP35" s="25" t="s">
+      <c r="Y35" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ35" s="25" t="s">
+      <c r="Z35" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR35" s="25" t="s">
+      <c r="AA35" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="36" spans="1:44" collapsed="1">
+    <row r="36" spans="1:27" collapsed="1">
       <c r="A36" s="39" t="s">
         <v>398</v>
       </c>
@@ -65559,50 +65669,53 @@
       <c r="K36" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="AD36" s="27" t="s">
+      <c r="L36" s="27" t="s">
         <v>2400</v>
       </c>
-      <c r="AE36" s="26" t="s">
+      <c r="M36" s="26" t="s">
         <v>3290</v>
       </c>
-      <c r="AF36" s="25" t="s">
+      <c r="N36" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O36" s="25" t="s">
         <v>1549</v>
       </c>
-      <c r="AG36" s="25" t="s">
+      <c r="P36" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH36" s="25" t="s">
+      <c r="Q36" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI36" s="25" t="s">
+      <c r="R36" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ36" s="25" t="s">
+      <c r="S36" s="25" t="s">
         <v>1281</v>
       </c>
-      <c r="AK36" s="25" t="s">
+      <c r="T36" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM36" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN36" s="25" t="s">
+      <c r="V36" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W36" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO36" s="25" t="s">
+      <c r="X36" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP36" s="25" t="s">
+      <c r="Y36" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ36" s="25" t="s">
+      <c r="Z36" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR36" s="25" t="s">
+      <c r="AA36" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="37" spans="1:44" collapsed="1">
+    <row r="37" spans="1:27" collapsed="1">
       <c r="A37" s="39" t="s">
         <v>399</v>
       </c>
@@ -65630,50 +65743,53 @@
       <c r="K37" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="AD37" s="27" t="s">
+      <c r="L37" s="27" t="s">
         <v>2401</v>
       </c>
-      <c r="AE37" s="26" t="s">
+      <c r="M37" s="26" t="s">
         <v>3291</v>
       </c>
-      <c r="AF37" s="25" t="s">
+      <c r="N37" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O37" s="25" t="s">
         <v>1550</v>
       </c>
-      <c r="AG37" s="25" t="s">
+      <c r="P37" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH37" s="25" t="s">
+      <c r="Q37" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI37" s="25" t="s">
+      <c r="R37" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ37" s="25" t="s">
+      <c r="S37" s="25" t="s">
         <v>1279</v>
       </c>
-      <c r="AK37" s="25" t="s">
+      <c r="T37" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM37" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN37" s="25" t="s">
+      <c r="V37" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W37" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO37" s="25" t="s">
+      <c r="X37" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP37" s="25" t="s">
+      <c r="Y37" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ37" s="25" t="s">
+      <c r="Z37" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR37" s="25" t="s">
+      <c r="AA37" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="38" spans="1:44" collapsed="1">
+    <row r="38" spans="1:27" collapsed="1">
       <c r="A38" s="39" t="s">
         <v>400</v>
       </c>
@@ -65703,50 +65819,53 @@
       <c r="K38" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="AD38" s="27" t="s">
+      <c r="L38" s="27" t="s">
         <v>2402</v>
       </c>
-      <c r="AE38" s="26" t="s">
+      <c r="M38" s="26" t="s">
         <v>3292</v>
       </c>
-      <c r="AF38" s="25" t="s">
+      <c r="N38" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O38" s="25" t="s">
         <v>1551</v>
       </c>
-      <c r="AG38" s="25" t="s">
+      <c r="P38" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH38" s="25" t="s">
+      <c r="Q38" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI38" s="25" t="s">
+      <c r="R38" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ38" s="25" t="s">
+      <c r="S38" s="25" t="s">
         <v>1292</v>
       </c>
-      <c r="AK38" s="25" t="s">
+      <c r="T38" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM38" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN38" s="25" t="s">
+      <c r="V38" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W38" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO38" s="25" t="s">
+      <c r="X38" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP38" s="25" t="s">
+      <c r="Y38" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ38" s="25" t="s">
+      <c r="Z38" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR38" s="25" t="s">
+      <c r="AA38" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="39" spans="1:44" collapsed="1">
+    <row r="39" spans="1:27" collapsed="1">
       <c r="A39" s="39" t="s">
         <v>401</v>
       </c>
@@ -65778,50 +65897,53 @@
       <c r="K39" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="AD39" s="27" t="s">
+      <c r="L39" s="27" t="s">
         <v>2403</v>
       </c>
-      <c r="AE39" s="26" t="s">
+      <c r="M39" s="26" t="s">
         <v>3293</v>
       </c>
-      <c r="AF39" s="25" t="s">
+      <c r="N39" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O39" s="25" t="s">
         <v>1552</v>
       </c>
-      <c r="AG39" s="25" t="s">
+      <c r="P39" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH39" s="25" t="s">
+      <c r="Q39" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI39" s="25" t="s">
+      <c r="R39" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ39" s="25" t="s">
+      <c r="S39" s="25" t="s">
         <v>1293</v>
       </c>
-      <c r="AK39" s="25" t="s">
+      <c r="T39" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM39" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN39" s="25" t="s">
+      <c r="V39" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W39" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO39" s="25" t="s">
+      <c r="X39" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP39" s="25" t="s">
+      <c r="Y39" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ39" s="25" t="s">
+      <c r="Z39" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR39" s="25" t="s">
+      <c r="AA39" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="40" spans="1:44" collapsed="1">
+    <row r="40" spans="1:27" collapsed="1">
       <c r="A40" s="39" t="s">
         <v>403</v>
       </c>
@@ -65855,50 +65977,53 @@
       <c r="K40" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="AD40" s="27" t="s">
+      <c r="L40" s="27" t="s">
         <v>2405</v>
       </c>
-      <c r="AE40" s="26" t="s">
+      <c r="M40" s="26" t="s">
         <v>3295</v>
       </c>
-      <c r="AF40" s="25" t="s">
+      <c r="N40" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O40" s="25" t="s">
         <v>1554</v>
       </c>
-      <c r="AG40" s="25" t="s">
+      <c r="P40" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH40" s="25" t="s">
+      <c r="Q40" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI40" s="25" t="s">
+      <c r="R40" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ40" s="25" t="s">
+      <c r="S40" s="25" t="s">
         <v>1293</v>
       </c>
-      <c r="AK40" s="25" t="s">
+      <c r="T40" s="25" t="s">
         <v>1287</v>
       </c>
-      <c r="AM40" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN40" s="25" t="s">
+      <c r="V40" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W40" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO40" s="25" t="s">
+      <c r="X40" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP40" s="25" t="s">
+      <c r="Y40" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ40" s="25" t="s">
+      <c r="Z40" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR40" s="25" t="s">
+      <c r="AA40" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="41" spans="1:44" collapsed="1">
+    <row r="41" spans="1:27" collapsed="1">
       <c r="A41" s="39" t="s">
         <v>404</v>
       </c>
@@ -65930,50 +66055,53 @@
       <c r="K41" s="44" t="s">
         <v>437</v>
       </c>
-      <c r="AD41" s="27" t="s">
+      <c r="L41" s="27" t="s">
         <v>2406</v>
       </c>
-      <c r="AE41" s="26" t="s">
+      <c r="M41" s="26" t="s">
         <v>3296</v>
       </c>
-      <c r="AF41" s="25" t="s">
+      <c r="N41" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O41" s="25" t="s">
         <v>1555</v>
       </c>
-      <c r="AG41" s="25" t="s">
+      <c r="P41" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH41" s="25" t="s">
+      <c r="Q41" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI41" s="25" t="s">
+      <c r="R41" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ41" s="25" t="s">
+      <c r="S41" s="25" t="s">
         <v>1294</v>
       </c>
-      <c r="AK41" s="25" t="s">
+      <c r="T41" s="25" t="s">
         <v>1287</v>
       </c>
-      <c r="AM41" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN41" s="25" t="s">
+      <c r="V41" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W41" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO41" s="25" t="s">
+      <c r="X41" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP41" s="25" t="s">
+      <c r="Y41" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ41" s="25" t="s">
+      <c r="Z41" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR41" s="25" t="s">
+      <c r="AA41" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="42" spans="1:44" collapsed="1">
+    <row r="42" spans="1:27" collapsed="1">
       <c r="A42" s="39" t="s">
         <v>405</v>
       </c>
@@ -66007,50 +66135,53 @@
       <c r="K42" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="AD42" s="27" t="s">
+      <c r="L42" s="27" t="s">
         <v>2407</v>
       </c>
-      <c r="AE42" s="26" t="s">
+      <c r="M42" s="26" t="s">
         <v>3297</v>
       </c>
-      <c r="AF42" s="25" t="s">
+      <c r="N42" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O42" s="25" t="s">
         <v>1556</v>
       </c>
-      <c r="AG42" s="25" t="s">
+      <c r="P42" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH42" s="25" t="s">
+      <c r="Q42" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI42" s="25" t="s">
+      <c r="R42" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ42" s="25" t="s">
+      <c r="S42" s="25" t="s">
         <v>1295</v>
       </c>
-      <c r="AK42" s="25" t="s">
+      <c r="T42" s="25" t="s">
         <v>1287</v>
       </c>
-      <c r="AM42" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN42" s="25" t="s">
+      <c r="V42" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W42" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO42" s="25" t="s">
+      <c r="X42" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP42" s="25" t="s">
+      <c r="Y42" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ42" s="25" t="s">
+      <c r="Z42" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR42" s="25" t="s">
+      <c r="AA42" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="43" spans="1:44" collapsed="1">
+    <row r="43" spans="1:27" collapsed="1">
       <c r="A43" s="39" t="s">
         <v>406</v>
       </c>
@@ -66084,50 +66215,53 @@
       <c r="K43" s="44" t="s">
         <v>441</v>
       </c>
-      <c r="AD43" s="27" t="s">
+      <c r="L43" s="27" t="s">
         <v>2408</v>
       </c>
-      <c r="AE43" s="26" t="s">
+      <c r="M43" s="26" t="s">
         <v>3298</v>
       </c>
-      <c r="AF43" s="25" t="s">
+      <c r="N43" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O43" s="25" t="s">
         <v>1557</v>
       </c>
-      <c r="AG43" s="25" t="s">
+      <c r="P43" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH43" s="25" t="s">
+      <c r="Q43" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI43" s="25" t="s">
+      <c r="R43" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ43" s="25" t="s">
+      <c r="S43" s="25" t="s">
         <v>1278</v>
       </c>
-      <c r="AK43" s="25" t="s">
+      <c r="T43" s="25" t="s">
         <v>1287</v>
       </c>
-      <c r="AM43" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN43" s="25" t="s">
+      <c r="V43" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W43" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO43" s="25" t="s">
+      <c r="X43" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP43" s="25" t="s">
+      <c r="Y43" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ43" s="25" t="s">
+      <c r="Z43" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR43" s="25" t="s">
+      <c r="AA43" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="44" spans="1:44" collapsed="1">
+    <row r="44" spans="1:27" collapsed="1">
       <c r="A44" s="39" t="s">
         <v>409</v>
       </c>
@@ -66161,50 +66295,53 @@
       <c r="K44" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="AD44" s="27" t="s">
+      <c r="L44" s="27" t="s">
         <v>2411</v>
       </c>
-      <c r="AE44" s="26" t="s">
+      <c r="M44" s="26" t="s">
         <v>3301</v>
       </c>
-      <c r="AF44" s="25" t="s">
+      <c r="N44" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O44" s="25" t="s">
         <v>1560</v>
       </c>
-      <c r="AG44" s="25" t="s">
+      <c r="P44" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH44" s="25" t="s">
+      <c r="Q44" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI44" s="25" t="s">
+      <c r="R44" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ44" s="25" t="s">
+      <c r="S44" s="25" t="s">
         <v>1297</v>
       </c>
-      <c r="AK44" s="25" t="s">
+      <c r="T44" s="25" t="s">
         <v>1287</v>
       </c>
-      <c r="AM44" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN44" s="25" t="s">
+      <c r="V44" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W44" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO44" s="25" t="s">
+      <c r="X44" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP44" s="25" t="s">
+      <c r="Y44" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ44" s="25" t="s">
+      <c r="Z44" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR44" s="25" t="s">
+      <c r="AA44" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="45" spans="1:44" collapsed="1">
+    <row r="45" spans="1:27" collapsed="1">
       <c r="A45" s="39" t="s">
         <v>411</v>
       </c>
@@ -66238,50 +66375,53 @@
       <c r="K45" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="AD45" s="27" t="s">
+      <c r="L45" s="27" t="s">
         <v>2413</v>
       </c>
-      <c r="AE45" s="26" t="s">
+      <c r="M45" s="26" t="s">
         <v>3303</v>
       </c>
-      <c r="AF45" s="25" t="s">
+      <c r="N45" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O45" s="25" t="s">
         <v>1562</v>
       </c>
-      <c r="AG45" s="25" t="s">
+      <c r="P45" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH45" s="25" t="s">
+      <c r="Q45" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI45" s="25" t="s">
+      <c r="R45" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ45" s="25" t="s">
+      <c r="S45" s="25" t="s">
         <v>1298</v>
       </c>
-      <c r="AK45" s="25" t="s">
+      <c r="T45" s="25" t="s">
         <v>1287</v>
       </c>
-      <c r="AM45" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN45" s="25" t="s">
+      <c r="V45" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W45" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO45" s="25" t="s">
+      <c r="X45" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP45" s="25" t="s">
+      <c r="Y45" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ45" s="25" t="s">
+      <c r="Z45" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR45" s="25" t="s">
+      <c r="AA45" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="46" spans="1:44" collapsed="1">
+    <row r="46" spans="1:27" collapsed="1">
       <c r="A46" s="39" t="s">
         <v>414</v>
       </c>
@@ -66315,50 +66455,53 @@
       <c r="K46" s="44" t="s">
         <v>452</v>
       </c>
-      <c r="AD46" s="27" t="s">
+      <c r="L46" s="27" t="s">
         <v>2415</v>
       </c>
-      <c r="AE46" s="26" t="s">
+      <c r="M46" s="26" t="s">
         <v>3305</v>
       </c>
-      <c r="AF46" s="25" t="s">
+      <c r="N46" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O46" s="25" t="s">
         <v>1564</v>
       </c>
-      <c r="AG46" s="25" t="s">
+      <c r="P46" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH46" s="25" t="s">
+      <c r="Q46" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI46" s="25" t="s">
+      <c r="R46" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ46" s="25" t="s">
+      <c r="S46" s="25" t="s">
         <v>1296</v>
       </c>
-      <c r="AK46" s="25" t="s">
+      <c r="T46" s="25" t="s">
         <v>1287</v>
       </c>
-      <c r="AM46" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN46" s="25" t="s">
+      <c r="V46" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W46" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO46" s="25" t="s">
+      <c r="X46" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP46" s="25" t="s">
+      <c r="Y46" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ46" s="25" t="s">
+      <c r="Z46" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR46" s="25" t="s">
+      <c r="AA46" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="47" spans="1:44" collapsed="1">
+    <row r="47" spans="1:27" collapsed="1">
       <c r="A47" s="39" t="s">
         <v>454</v>
       </c>
@@ -66392,50 +66535,53 @@
       <c r="K47" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="AD47" s="27" t="s">
+      <c r="L47" s="27" t="s">
         <v>2439</v>
       </c>
-      <c r="AE47" s="26" t="s">
+      <c r="M47" s="26" t="s">
         <v>3329</v>
       </c>
-      <c r="AF47" s="25" t="s">
+      <c r="N47" s="26" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O47" s="25" t="s">
         <v>1588</v>
       </c>
-      <c r="AG47" s="25" t="s">
+      <c r="P47" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH47" s="25" t="s">
+      <c r="Q47" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI47" s="25" t="s">
+      <c r="R47" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ47" s="25" t="s">
+      <c r="S47" s="25" t="s">
         <v>1289</v>
       </c>
-      <c r="AK47" s="25" t="s">
+      <c r="T47" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM47" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN47" s="25" t="s">
+      <c r="V47" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W47" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO47" s="25" t="s">
+      <c r="X47" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP47" s="25" t="s">
+      <c r="Y47" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ47" s="25" t="s">
+      <c r="Z47" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR47" s="25" t="s">
+      <c r="AA47" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="48" spans="1:44" collapsed="1">
+    <row r="48" spans="1:27" collapsed="1">
       <c r="A48" s="39" t="s">
         <v>498</v>
       </c>
@@ -66469,50 +66615,53 @@
       <c r="K48" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="AD48" s="27" t="s">
+      <c r="L48" s="27" t="s">
         <v>2482</v>
       </c>
-      <c r="AE48" s="26" t="s">
+      <c r="M48" s="26" t="s">
         <v>3372</v>
       </c>
-      <c r="AF48" s="25" t="s">
+      <c r="N48" s="26" t="s">
+        <v>4106</v>
+      </c>
+      <c r="O48" s="25" t="s">
         <v>1627</v>
       </c>
-      <c r="AG48" s="25" t="s">
+      <c r="P48" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH48" s="25" t="s">
+      <c r="Q48" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI48" s="25" t="s">
+      <c r="R48" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ48" s="25" t="s">
+      <c r="S48" s="25" t="s">
         <v>1282</v>
       </c>
-      <c r="AK48" s="25" t="s">
+      <c r="T48" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM48" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN48" s="25" t="s">
+      <c r="V48" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W48" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO48" s="25" t="s">
+      <c r="X48" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP48" s="25" t="s">
+      <c r="Y48" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ48" s="25" t="s">
+      <c r="Z48" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR48" s="25" t="s">
+      <c r="AA48" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="49" spans="1:44" collapsed="1">
+    <row r="49" spans="1:27" collapsed="1">
       <c r="A49" s="39" t="s">
         <v>499</v>
       </c>
@@ -66544,50 +66693,53 @@
       <c r="K49" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="AD49" s="27" t="s">
+      <c r="L49" s="27" t="s">
         <v>2483</v>
       </c>
-      <c r="AE49" s="26" t="s">
+      <c r="M49" s="26" t="s">
         <v>3373</v>
       </c>
-      <c r="AF49" s="25" t="s">
+      <c r="N49" s="26" t="s">
+        <v>4106</v>
+      </c>
+      <c r="O49" s="25" t="s">
         <v>1628</v>
       </c>
-      <c r="AG49" s="25" t="s">
+      <c r="P49" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH49" s="25" t="s">
+      <c r="Q49" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI49" s="25" t="s">
+      <c r="R49" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ49" s="25" t="s">
+      <c r="S49" s="25" t="s">
         <v>1290</v>
       </c>
-      <c r="AK49" s="25" t="s">
+      <c r="T49" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM49" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN49" s="25" t="s">
+      <c r="V49" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W49" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO49" s="25" t="s">
+      <c r="X49" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP49" s="25" t="s">
+      <c r="Y49" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ49" s="25" t="s">
+      <c r="Z49" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR49" s="25" t="s">
+      <c r="AA49" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="50" spans="1:44" collapsed="1">
+    <row r="50" spans="1:27" collapsed="1">
       <c r="A50" s="39" t="s">
         <v>500</v>
       </c>
@@ -66621,50 +66773,53 @@
       <c r="K50" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="AD50" s="27" t="s">
+      <c r="L50" s="27" t="s">
         <v>2484</v>
       </c>
-      <c r="AE50" s="26" t="s">
+      <c r="M50" s="26" t="s">
         <v>3374</v>
       </c>
-      <c r="AF50" s="25" t="s">
+      <c r="N50" s="26" t="s">
+        <v>4106</v>
+      </c>
+      <c r="O50" s="25" t="s">
         <v>1629</v>
       </c>
-      <c r="AG50" s="25" t="s">
+      <c r="P50" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH50" s="25" t="s">
+      <c r="Q50" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI50" s="25" t="s">
+      <c r="R50" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ50" s="25" t="s">
+      <c r="S50" s="25" t="s">
         <v>1302</v>
       </c>
-      <c r="AK50" s="25" t="s">
+      <c r="T50" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM50" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN50" s="25" t="s">
+      <c r="V50" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W50" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO50" s="25" t="s">
+      <c r="X50" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP50" s="25" t="s">
+      <c r="Y50" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ50" s="25" t="s">
+      <c r="Z50" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR50" s="25" t="s">
+      <c r="AA50" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="51" spans="1:44" collapsed="1">
+    <row r="51" spans="1:27" collapsed="1">
       <c r="A51" s="39" t="s">
         <v>585</v>
       </c>
@@ -66698,50 +66853,53 @@
       <c r="K51" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="AD51" s="27" t="s">
+      <c r="L51" s="27" t="s">
         <v>2527</v>
       </c>
-      <c r="AE51" s="26" t="s">
+      <c r="M51" s="26" t="s">
         <v>3417</v>
       </c>
-      <c r="AF51" s="25" t="s">
+      <c r="N51" s="26" t="s">
+        <v>4107</v>
+      </c>
+      <c r="O51" s="25" t="s">
         <v>1659</v>
       </c>
-      <c r="AG51" s="25" t="s">
+      <c r="P51" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH51" s="25" t="s">
+      <c r="Q51" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI51" s="25" t="s">
+      <c r="R51" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ51" s="25" t="s">
+      <c r="S51" s="25" t="s">
         <v>1299</v>
       </c>
-      <c r="AK51" s="25" t="s">
+      <c r="T51" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM51" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN51" s="25" t="s">
+      <c r="V51" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W51" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO51" s="25" t="s">
+      <c r="X51" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP51" s="25" t="s">
+      <c r="Y51" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ51" s="25" t="s">
+      <c r="Z51" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR51" s="25" t="s">
+      <c r="AA51" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="52" spans="1:44" collapsed="1">
+    <row r="52" spans="1:27" collapsed="1">
       <c r="A52" s="39" t="s">
         <v>586</v>
       </c>
@@ -66775,50 +66933,53 @@
       <c r="K52" s="44" t="s">
         <v>628</v>
       </c>
-      <c r="AD52" s="27" t="s">
+      <c r="L52" s="27" t="s">
         <v>2528</v>
       </c>
-      <c r="AE52" s="26" t="s">
+      <c r="M52" s="26" t="s">
         <v>3418</v>
       </c>
-      <c r="AF52" s="25" t="s">
+      <c r="N52" s="26" t="s">
+        <v>4107</v>
+      </c>
+      <c r="O52" s="25" t="s">
         <v>1660</v>
       </c>
-      <c r="AG52" s="25" t="s">
+      <c r="P52" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH52" s="25" t="s">
+      <c r="Q52" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI52" s="25" t="s">
+      <c r="R52" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ52" s="25" t="s">
+      <c r="S52" s="25" t="s">
         <v>1301</v>
       </c>
-      <c r="AK52" s="25" t="s">
+      <c r="T52" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM52" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN52" s="25" t="s">
+      <c r="V52" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W52" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO52" s="25" t="s">
+      <c r="X52" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP52" s="25" t="s">
+      <c r="Y52" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ52" s="25" t="s">
+      <c r="Z52" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR52" s="25" t="s">
+      <c r="AA52" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="53" spans="1:44" collapsed="1">
+    <row r="53" spans="1:27" collapsed="1">
       <c r="A53" s="39" t="s">
         <v>590</v>
       </c>
@@ -66852,50 +67013,53 @@
       <c r="K53" s="44" t="s">
         <v>633</v>
       </c>
-      <c r="AD53" s="27" t="s">
+      <c r="L53" s="27" t="s">
         <v>2531</v>
       </c>
-      <c r="AE53" s="26" t="s">
+      <c r="M53" s="26" t="s">
         <v>3421</v>
       </c>
-      <c r="AF53" s="25" t="s">
+      <c r="N53" s="26" t="s">
+        <v>4107</v>
+      </c>
+      <c r="O53" s="25" t="s">
         <v>1663</v>
       </c>
-      <c r="AG53" s="25" t="s">
+      <c r="P53" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH53" s="25" t="s">
+      <c r="Q53" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI53" s="25" t="s">
+      <c r="R53" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ53" s="25" t="s">
+      <c r="S53" s="25" t="s">
         <v>1303</v>
       </c>
-      <c r="AK53" s="25" t="s">
+      <c r="T53" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM53" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN53" s="25" t="s">
+      <c r="V53" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W53" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO53" s="25" t="s">
+      <c r="X53" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP53" s="25" t="s">
+      <c r="Y53" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ53" s="25" t="s">
+      <c r="Z53" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR53" s="25" t="s">
+      <c r="AA53" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="54" spans="1:44" collapsed="1">
+    <row r="54" spans="1:27" collapsed="1">
       <c r="A54" s="39" t="s">
         <v>594</v>
       </c>
@@ -66927,50 +67091,53 @@
       <c r="K54" s="44" t="s">
         <v>638</v>
       </c>
-      <c r="AD54" s="27" t="s">
+      <c r="L54" s="27" t="s">
         <v>2535</v>
       </c>
-      <c r="AE54" s="26" t="s">
+      <c r="M54" s="26" t="s">
         <v>3425</v>
       </c>
-      <c r="AF54" s="25" t="s">
+      <c r="N54" s="26" t="s">
+        <v>4107</v>
+      </c>
+      <c r="O54" s="25" t="s">
         <v>1667</v>
       </c>
-      <c r="AG54" s="25" t="s">
+      <c r="P54" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH54" s="25" t="s">
+      <c r="Q54" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI54" s="25" t="s">
+      <c r="R54" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ54" s="25" t="s">
+      <c r="S54" s="25" t="s">
         <v>1302</v>
       </c>
-      <c r="AK54" s="25" t="s">
+      <c r="T54" s="25" t="s">
         <v>1304</v>
       </c>
-      <c r="AM54" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN54" s="25" t="s">
+      <c r="V54" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W54" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO54" s="25" t="s">
+      <c r="X54" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP54" s="25" t="s">
+      <c r="Y54" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ54" s="25" t="s">
+      <c r="Z54" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR54" s="25" t="s">
+      <c r="AA54" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="55" spans="1:44" collapsed="1">
+    <row r="55" spans="1:27" collapsed="1">
       <c r="A55" s="39" t="s">
         <v>606</v>
       </c>
@@ -67000,50 +67167,53 @@
       <c r="K55" s="44" t="s">
         <v>651</v>
       </c>
-      <c r="AD55" s="27" t="s">
+      <c r="L55" s="27" t="s">
         <v>2546</v>
       </c>
-      <c r="AE55" s="26" t="s">
+      <c r="M55" s="26" t="s">
         <v>3436</v>
       </c>
-      <c r="AF55" s="25" t="s">
+      <c r="N55" s="26" t="s">
+        <v>4107</v>
+      </c>
+      <c r="O55" s="25" t="s">
         <v>1678</v>
       </c>
-      <c r="AG55" s="25" t="s">
+      <c r="P55" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH55" s="25" t="s">
+      <c r="Q55" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI55" s="25" t="s">
+      <c r="R55" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ55" s="25" t="s">
+      <c r="S55" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="AK55" s="25" t="s">
+      <c r="T55" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM55" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN55" s="25" t="s">
+      <c r="V55" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W55" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO55" s="25" t="s">
+      <c r="X55" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP55" s="25" t="s">
+      <c r="Y55" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ55" s="25" t="s">
+      <c r="Z55" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR55" s="25" t="s">
+      <c r="AA55" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="56" spans="1:44" collapsed="1">
+    <row r="56" spans="1:27" collapsed="1">
       <c r="A56" s="39" t="s">
         <v>616</v>
       </c>
@@ -67075,50 +67245,53 @@
       <c r="K56" s="44" t="s">
         <v>662</v>
       </c>
-      <c r="AD56" s="27" t="s">
+      <c r="L56" s="27" t="s">
         <v>2555</v>
       </c>
-      <c r="AE56" s="26" t="s">
+      <c r="M56" s="26" t="s">
         <v>3445</v>
       </c>
-      <c r="AF56" s="25" t="s">
+      <c r="N56" s="26" t="s">
+        <v>4107</v>
+      </c>
+      <c r="O56" s="25" t="s">
         <v>1687</v>
       </c>
-      <c r="AG56" s="25" t="s">
+      <c r="P56" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH56" s="25" t="s">
+      <c r="Q56" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI56" s="25" t="s">
+      <c r="R56" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ56" s="25" t="s">
+      <c r="S56" s="25" t="s">
         <v>1282</v>
       </c>
-      <c r="AK56" s="25" t="s">
+      <c r="T56" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM56" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN56" s="25" t="s">
+      <c r="V56" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W56" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO56" s="25" t="s">
+      <c r="X56" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP56" s="25" t="s">
+      <c r="Y56" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ56" s="25" t="s">
+      <c r="Z56" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR56" s="25" t="s">
+      <c r="AA56" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="57" spans="1:44" collapsed="1">
+    <row r="57" spans="1:27" collapsed="1">
       <c r="A57" s="39" t="s">
         <v>617</v>
       </c>
@@ -67146,50 +67319,53 @@
       <c r="K57" s="44" t="s">
         <v>664</v>
       </c>
-      <c r="AD57" s="27" t="s">
+      <c r="L57" s="27" t="s">
         <v>2556</v>
       </c>
-      <c r="AE57" s="26" t="s">
+      <c r="M57" s="26" t="s">
         <v>3446</v>
       </c>
-      <c r="AF57" s="25" t="s">
+      <c r="N57" s="26" t="s">
+        <v>4107</v>
+      </c>
+      <c r="O57" s="25" t="s">
         <v>1688</v>
       </c>
-      <c r="AG57" s="25" t="s">
+      <c r="P57" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH57" s="25" t="s">
+      <c r="Q57" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI57" s="25" t="s">
+      <c r="R57" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ57" s="25" t="s">
+      <c r="S57" s="25" t="s">
         <v>1300</v>
       </c>
-      <c r="AK57" s="25" t="s">
+      <c r="T57" s="25" t="s">
         <v>1283</v>
       </c>
-      <c r="AM57" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN57" s="25" t="s">
+      <c r="V57" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W57" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO57" s="25" t="s">
+      <c r="X57" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP57" s="25" t="s">
+      <c r="Y57" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ57" s="25" t="s">
+      <c r="Z57" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR57" s="25" t="s">
+      <c r="AA57" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="58" spans="1:44" collapsed="1">
+    <row r="58" spans="1:27" collapsed="1">
       <c r="A58" s="39" t="s">
         <v>618</v>
       </c>
@@ -67219,51 +67395,54 @@
       <c r="K58" s="44" t="s">
         <v>666</v>
       </c>
-      <c r="AD58" s="27" t="s">
+      <c r="L58" s="27" t="s">
         <v>2557</v>
       </c>
-      <c r="AE58" s="26" t="s">
+      <c r="M58" s="26" t="s">
         <v>3447</v>
       </c>
-      <c r="AF58" s="25" t="s">
+      <c r="N58" s="26" t="s">
+        <v>4107</v>
+      </c>
+      <c r="O58" s="25" t="s">
         <v>1689</v>
       </c>
-      <c r="AG58" s="25" t="s">
+      <c r="P58" s="25" t="s">
         <v>2028</v>
       </c>
-      <c r="AH58" s="25" t="s">
+      <c r="Q58" s="25" t="s">
         <v>1253</v>
       </c>
-      <c r="AI58" s="25" t="s">
+      <c r="R58" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="AJ58" s="25" t="s">
+      <c r="S58" s="25" t="s">
         <v>1280</v>
       </c>
-      <c r="AK58" s="25" t="s">
+      <c r="T58" s="25" t="s">
         <v>1305</v>
       </c>
-      <c r="AM58" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN58" s="25" t="s">
+      <c r="V58" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W58" s="25" t="s">
         <v>2029</v>
       </c>
-      <c r="AO58" s="25" t="s">
+      <c r="X58" s="25" t="s">
         <v>1316</v>
       </c>
-      <c r="AP58" s="25" t="s">
+      <c r="Y58" s="25" t="s">
         <v>2025</v>
       </c>
-      <c r="AQ58" s="25" t="s">
+      <c r="Z58" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="AR58" s="25" t="s">
+      <c r="AA58" s="25" t="s">
         <v>2026</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BO58">
+  <autoFilter ref="A1:AX58">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -67274,91 +67453,74 @@
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
     <filterColumn colId="10"/>
-    <filterColumn colId="11"/>
-    <filterColumn colId="12"/>
     <filterColumn colId="13"/>
-    <filterColumn colId="14"/>
-    <filterColumn colId="15"/>
-    <filterColumn colId="16"/>
-    <filterColumn colId="17"/>
-    <filterColumn colId="18"/>
-    <filterColumn colId="19"/>
-    <filterColumn colId="20"/>
-    <filterColumn colId="21"/>
-    <filterColumn colId="22"/>
-    <filterColumn colId="23"/>
-    <filterColumn colId="24"/>
-    <filterColumn colId="25"/>
-    <filterColumn colId="26"/>
-    <filterColumn colId="27"/>
-    <filterColumn colId="28"/>
     <sortState ref="A2:AU593">
       <sortCondition ref="A1:A593"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1 AG2:AL1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P2:U1048576">
       <formula1>"사진류, 그림류, 영상류, 음성류"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AM2" r:id="rId1" display="170527_소풍_경기천년소풍(1회) 인생낙서 00-상-전_고아라.jpg"/>
-    <hyperlink ref="AM4" r:id="rId2" display="170527_소풍_경기천년소풍(1회) 인생낙서 00-하-전중_고아라.jpg"/>
-    <hyperlink ref="AM5" r:id="rId3" display="170527_소풍_경기천년소풍(1회) 인생낙서 00-하-중_고아라.jpg"/>
-    <hyperlink ref="AM6" r:id="rId4" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-상-전_고아라.jpg"/>
-    <hyperlink ref="AM7" r:id="rId5" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-상-중후_고아라.jpg"/>
-    <hyperlink ref="AM8" r:id="rId6" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-하-전_고아라.jpg"/>
-    <hyperlink ref="AM9" r:id="rId7" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-하-중후_고아라.jpg"/>
-    <hyperlink ref="AM10" r:id="rId8" display="170527_소풍_경기천년소풍(1회) 인생낙서 20-상-전중_고아라.jpg"/>
-    <hyperlink ref="AM11" r:id="rId9" display="170527_소풍_경기천년소풍(1회) 인생낙서 20-하-전중_고아라.jpg"/>
-    <hyperlink ref="AM12" r:id="rId10" display="170527_소풍_경기천년소풍(1회) 인생낙서 20-하-후_고아라.jpg"/>
-    <hyperlink ref="AM13" r:id="rId11" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-상-전_고아라.jpg"/>
-    <hyperlink ref="AM14" r:id="rId12" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-상-중후)_고아라.jpg"/>
-    <hyperlink ref="AM15" r:id="rId13" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-전-중후_고아라.jpg"/>
-    <hyperlink ref="AM16" r:id="rId14" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-하-중후_고아라.jpg"/>
-    <hyperlink ref="AM17" r:id="rId15" display="170527_소풍_경기천년소풍(1회) 인생낙서 40-상-전중_고아라 (1).jpg"/>
-    <hyperlink ref="AM18" r:id="rId16" display="170527_소풍_경기천년소풍(1회) 인생낙서 40-상-전중_고아라 (2).jpg"/>
-    <hyperlink ref="AM19" r:id="rId17" display="170527_소풍_경기천년소풍(1회) 인생낙서 40-하-전_고아라.jpg"/>
-    <hyperlink ref="AM20" r:id="rId18" display="170527_소풍_경기천년소풍(1회) 인생낙서 50-상-전_고아라.jpg"/>
-    <hyperlink ref="AM21" r:id="rId19" display="170527_소풍_경기천년소풍(1회) 인생낙서 50-상-중후_고아라.jpg"/>
-    <hyperlink ref="AM22" r:id="rId20" display="170527_소풍_경기천년소풍(1회) 인생낙서 50-하-중후_고아라.jpg"/>
-    <hyperlink ref="AM23" r:id="rId21" display="170527_소풍_경기천년소풍(1회) 인생낙서 60-하-전_고아라.jpg"/>
-    <hyperlink ref="AM24" r:id="rId22" display="170527_소풍_경기천년소풍(1회) 인생낙서 70-상-전_고아라 (2).jpg"/>
-    <hyperlink ref="AM25" r:id="rId23" display="170527_소풍_경기천년소풍(1회) 인생낙서 70-하-중_고아라.jpg"/>
-    <hyperlink ref="AM26" r:id="rId24" display="170527_소풍_경기천년소풍(1회) 인생낙서 80-상-후_고아라.jpg"/>
-    <hyperlink ref="AM27" r:id="rId25" display="170527_소풍_경기천년소풍(1회) 인생낙서 80-하-전_고아라.jpg"/>
-    <hyperlink ref="AM28" r:id="rId26" display="170527_소풍_경기천년소풍(1회) 인생낙서 90-하-후_고아라.jpg"/>
-    <hyperlink ref="AM29" r:id="rId27" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (14).jpg"/>
-    <hyperlink ref="AM30" r:id="rId28" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (31).jpg"/>
-    <hyperlink ref="AM31" r:id="rId29" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (32).jpg"/>
-    <hyperlink ref="AM32" r:id="rId30" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (33).jpg"/>
-    <hyperlink ref="AM33" r:id="rId31" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (34).jpg"/>
-    <hyperlink ref="AM34" r:id="rId32" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (35).jpg"/>
-    <hyperlink ref="AM35" r:id="rId33" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (36).jpg"/>
-    <hyperlink ref="AM36" r:id="rId34" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (37).jpg"/>
-    <hyperlink ref="AM37" r:id="rId35" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (38).jpg"/>
-    <hyperlink ref="AM38" r:id="rId36" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (39).jpg"/>
-    <hyperlink ref="AM39" r:id="rId37" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (40).jpg"/>
-    <hyperlink ref="AM40" r:id="rId38" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (42).jpg"/>
-    <hyperlink ref="AM41" r:id="rId39" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (43).jpg"/>
-    <hyperlink ref="AM42" r:id="rId40" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (44).jpg"/>
-    <hyperlink ref="AM43" r:id="rId41" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (45).jpg"/>
-    <hyperlink ref="AM44" r:id="rId42" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (48).jpg"/>
-    <hyperlink ref="AM45" r:id="rId43" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (50).jpg"/>
-    <hyperlink ref="AM46" r:id="rId44" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (52).jpg"/>
-    <hyperlink ref="AM47" r:id="rId45" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (76).jpg"/>
-    <hyperlink ref="AM48" r:id="rId46" display="170527_소풍_경기천년소풍(1회)_인생낙서 현장기록사진_문화용역주성진 (15).jpg"/>
-    <hyperlink ref="AM49" r:id="rId47" display="170527_소풍_경기천년소풍(1회)_인생낙서 현장기록사진_문화용역주성진 (16).jpg"/>
-    <hyperlink ref="AM50" r:id="rId48" display="170527_소풍_경기천년소풍(1회)_인생낙서 현장기록사진_문화용역주성진 (17).jpg"/>
-    <hyperlink ref="AM51" r:id="rId49" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (27).jpg"/>
-    <hyperlink ref="AM52" r:id="rId50" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (28).jpg"/>
-    <hyperlink ref="AM53" r:id="rId51" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (31).jpg"/>
-    <hyperlink ref="AM54" r:id="rId52" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (35).jpg"/>
-    <hyperlink ref="AM55" r:id="rId53" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (46).jpg"/>
-    <hyperlink ref="AM56" r:id="rId54" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (55).jpg"/>
-    <hyperlink ref="AM57" r:id="rId55" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (56).jpg"/>
-    <hyperlink ref="AM58" r:id="rId56" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (57).jpg"/>
+    <hyperlink ref="V2" r:id="rId1" display="170527_소풍_경기천년소풍(1회) 인생낙서 00-상-전_고아라.jpg"/>
+    <hyperlink ref="V4" r:id="rId2" display="170527_소풍_경기천년소풍(1회) 인생낙서 00-하-전중_고아라.jpg"/>
+    <hyperlink ref="V5" r:id="rId3" display="170527_소풍_경기천년소풍(1회) 인생낙서 00-하-중_고아라.jpg"/>
+    <hyperlink ref="V6" r:id="rId4" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-상-전_고아라.jpg"/>
+    <hyperlink ref="V7" r:id="rId5" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-상-중후_고아라.jpg"/>
+    <hyperlink ref="V8" r:id="rId6" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-하-전_고아라.jpg"/>
+    <hyperlink ref="V9" r:id="rId7" display="170527_소풍_경기천년소풍(1회) 인생낙서 10-하-중후_고아라.jpg"/>
+    <hyperlink ref="V10" r:id="rId8" display="170527_소풍_경기천년소풍(1회) 인생낙서 20-상-전중_고아라.jpg"/>
+    <hyperlink ref="V11" r:id="rId9" display="170527_소풍_경기천년소풍(1회) 인생낙서 20-하-전중_고아라.jpg"/>
+    <hyperlink ref="V12" r:id="rId10" display="170527_소풍_경기천년소풍(1회) 인생낙서 20-하-후_고아라.jpg"/>
+    <hyperlink ref="V13" r:id="rId11" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-상-전_고아라.jpg"/>
+    <hyperlink ref="V14" r:id="rId12" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-상-중후)_고아라.jpg"/>
+    <hyperlink ref="V15" r:id="rId13" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-전-중후_고아라.jpg"/>
+    <hyperlink ref="V16" r:id="rId14" display="170527_소풍_경기천년소풍(1회) 인생낙서 30-하-중후_고아라.jpg"/>
+    <hyperlink ref="V17" r:id="rId15" display="170527_소풍_경기천년소풍(1회) 인생낙서 40-상-전중_고아라 (1).jpg"/>
+    <hyperlink ref="V18" r:id="rId16" display="170527_소풍_경기천년소풍(1회) 인생낙서 40-상-전중_고아라 (2).jpg"/>
+    <hyperlink ref="V19" r:id="rId17" display="170527_소풍_경기천년소풍(1회) 인생낙서 40-하-전_고아라.jpg"/>
+    <hyperlink ref="V20" r:id="rId18" display="170527_소풍_경기천년소풍(1회) 인생낙서 50-상-전_고아라.jpg"/>
+    <hyperlink ref="V21" r:id="rId19" display="170527_소풍_경기천년소풍(1회) 인생낙서 50-상-중후_고아라.jpg"/>
+    <hyperlink ref="V22" r:id="rId20" display="170527_소풍_경기천년소풍(1회) 인생낙서 50-하-중후_고아라.jpg"/>
+    <hyperlink ref="V23" r:id="rId21" display="170527_소풍_경기천년소풍(1회) 인생낙서 60-하-전_고아라.jpg"/>
+    <hyperlink ref="V24" r:id="rId22" display="170527_소풍_경기천년소풍(1회) 인생낙서 70-상-전_고아라 (2).jpg"/>
+    <hyperlink ref="V25" r:id="rId23" display="170527_소풍_경기천년소풍(1회) 인생낙서 70-하-중_고아라.jpg"/>
+    <hyperlink ref="V26" r:id="rId24" display="170527_소풍_경기천년소풍(1회) 인생낙서 80-상-후_고아라.jpg"/>
+    <hyperlink ref="V27" r:id="rId25" display="170527_소풍_경기천년소풍(1회) 인생낙서 80-하-전_고아라.jpg"/>
+    <hyperlink ref="V28" r:id="rId26" display="170527_소풍_경기천년소풍(1회) 인생낙서 90-하-후_고아라.jpg"/>
+    <hyperlink ref="V29" r:id="rId27" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (14).jpg"/>
+    <hyperlink ref="V30" r:id="rId28" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (31).jpg"/>
+    <hyperlink ref="V31" r:id="rId29" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (32).jpg"/>
+    <hyperlink ref="V32" r:id="rId30" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (33).jpg"/>
+    <hyperlink ref="V33" r:id="rId31" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (34).jpg"/>
+    <hyperlink ref="V34" r:id="rId32" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (35).jpg"/>
+    <hyperlink ref="V35" r:id="rId33" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (36).jpg"/>
+    <hyperlink ref="V36" r:id="rId34" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (37).jpg"/>
+    <hyperlink ref="V37" r:id="rId35" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (38).jpg"/>
+    <hyperlink ref="V38" r:id="rId36" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (39).jpg"/>
+    <hyperlink ref="V39" r:id="rId37" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (40).jpg"/>
+    <hyperlink ref="V40" r:id="rId38" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (42).jpg"/>
+    <hyperlink ref="V41" r:id="rId39" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (43).jpg"/>
+    <hyperlink ref="V42" r:id="rId40" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (44).jpg"/>
+    <hyperlink ref="V43" r:id="rId41" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (45).jpg"/>
+    <hyperlink ref="V44" r:id="rId42" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (48).jpg"/>
+    <hyperlink ref="V45" r:id="rId43" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (50).jpg"/>
+    <hyperlink ref="V46" r:id="rId44" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (52).jpg"/>
+    <hyperlink ref="V47" r:id="rId45" display="170527_소풍_경기천년소풍(1회)_도전!도의원 현장기록사진_문화용역주성진 (76).jpg"/>
+    <hyperlink ref="V48" r:id="rId46" display="170527_소풍_경기천년소풍(1회)_인생낙서 현장기록사진_문화용역주성진 (15).jpg"/>
+    <hyperlink ref="V49" r:id="rId47" display="170527_소풍_경기천년소풍(1회)_인생낙서 현장기록사진_문화용역주성진 (16).jpg"/>
+    <hyperlink ref="V50" r:id="rId48" display="170527_소풍_경기천년소풍(1회)_인생낙서 현장기록사진_문화용역주성진 (17).jpg"/>
+    <hyperlink ref="V51" r:id="rId49" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (27).jpg"/>
+    <hyperlink ref="V52" r:id="rId50" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (28).jpg"/>
+    <hyperlink ref="V53" r:id="rId51" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (31).jpg"/>
+    <hyperlink ref="V54" r:id="rId52" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (35).jpg"/>
+    <hyperlink ref="V55" r:id="rId53" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (46).jpg"/>
+    <hyperlink ref="V56" r:id="rId54" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (55).jpg"/>
+    <hyperlink ref="V57" r:id="rId55" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (56).jpg"/>
+    <hyperlink ref="V58" r:id="rId56" display="170527_소풍_경기천년소풍(1회)_추억의방 현장기록사진_문화용역주성진 (57).jpg"/>
     <hyperlink ref="A2" r:id="rId57"/>
     <hyperlink ref="A4" r:id="rId58"/>
     <hyperlink ref="A5" r:id="rId59"/>
